--- a/小精灵配置文件/小精灵需求/角色信息.xlsx
+++ b/小精灵配置文件/小精灵需求/角色信息.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="738">
   <si>
     <t>序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2468,6 +2468,121 @@
   </si>
   <si>
     <t>黄忠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新阵容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉提奥斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>露基亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海皇牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰尼龟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛力露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可达鸭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛力露丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化石盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆呆兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小海狮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白海狮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚊香蝌蚪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚊香蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快泳蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震鲶鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁甲贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大舌贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石海星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多刺菊花兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨钳蟹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒刺水母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴鲤龙</t>
+  </si>
+  <si>
+    <t>海刺龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲤鱼王</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2475,7 +2590,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2520,20 +2635,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2606,6 +2726,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2634,7 +2760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2669,9 +2795,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2694,12 +2817,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3004,1392 +3133,1842 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="20"/>
+    <col min="1" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="E1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="22">
         <v>5</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="22">
         <v>18</v>
       </c>
-      <c r="E2" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
-        <v>2</v>
-      </c>
-      <c r="B3" s="23" t="s">
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22" t="str">
+        <f>VLOOKUP($E2,$O$3:$P$6,2,0)</f>
+        <v>水</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <v>5</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <v>18</v>
       </c>
-      <c r="E3" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="24">
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="22" t="str">
+        <f t="shared" ref="F3:F66" si="0">VLOOKUP($E3,$O$3:$P$6,2,0)</f>
+        <v>水</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="O3" s="28">
+        <v>1</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="24">
-        <v>4</v>
-      </c>
-      <c r="D4" s="24">
+      <c r="C4" s="23">
+        <v>4</v>
+      </c>
+      <c r="D4" s="23">
         <v>15</v>
       </c>
-      <c r="E4" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="24">
-        <v>4</v>
-      </c>
-      <c r="B5" s="24" t="s">
+      <c r="E4" s="23">
+        <v>1</v>
+      </c>
+      <c r="F4" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="28">
+        <v>2</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="24">
-        <v>4</v>
-      </c>
-      <c r="D5" s="24">
+      <c r="C5" s="23">
+        <v>4</v>
+      </c>
+      <c r="D5" s="23">
         <v>15</v>
       </c>
-      <c r="E5" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="24">
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="O5" s="28">
+        <v>3</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="24">
-        <v>4</v>
-      </c>
-      <c r="D6" s="24">
+      <c r="C6" s="23">
+        <v>4</v>
+      </c>
+      <c r="D6" s="23">
         <v>15</v>
       </c>
-      <c r="E6" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="24">
+      <c r="E6" s="23">
+        <v>1</v>
+      </c>
+      <c r="F6" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>737</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>735</v>
+      </c>
+      <c r="O6" s="28">
+        <v>4</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="24">
-        <v>4</v>
-      </c>
-      <c r="D7" s="24">
+      <c r="C7" s="23">
+        <v>4</v>
+      </c>
+      <c r="D7" s="23">
         <v>15</v>
       </c>
-      <c r="E7" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="24">
+      <c r="E7" s="23">
+        <v>1</v>
+      </c>
+      <c r="F7" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>717</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="24">
-        <v>4</v>
-      </c>
-      <c r="D8" s="24">
+      <c r="C8" s="23">
+        <v>4</v>
+      </c>
+      <c r="D8" s="23">
         <v>15</v>
       </c>
-      <c r="E8" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="24">
+      <c r="E8" s="23">
+        <v>1</v>
+      </c>
+      <c r="F8" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>718</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="24">
-        <v>4</v>
-      </c>
-      <c r="D9" s="24">
+      <c r="C9" s="23">
+        <v>4</v>
+      </c>
+      <c r="D9" s="23">
         <v>15</v>
       </c>
-      <c r="E9" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="24">
+      <c r="E9" s="23">
+        <v>1</v>
+      </c>
+      <c r="F9" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>726</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="24">
-        <v>4</v>
-      </c>
-      <c r="D10" s="24">
+      <c r="C10" s="23">
+        <v>4</v>
+      </c>
+      <c r="D10" s="23">
         <v>15</v>
       </c>
-      <c r="E10" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
+      <c r="E10" s="23">
+        <v>1</v>
+      </c>
+      <c r="F10" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="24">
-        <v>4</v>
-      </c>
-      <c r="D11" s="24">
+      <c r="C11" s="23">
+        <v>4</v>
+      </c>
+      <c r="D11" s="23">
         <v>15</v>
       </c>
-      <c r="E11" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="25">
+      <c r="E11" s="23">
+        <v>1</v>
+      </c>
+      <c r="F11" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="25">
-        <v>4</v>
-      </c>
-      <c r="D12" s="25">
+      <c r="C12" s="24">
+        <v>4</v>
+      </c>
+      <c r="D12" s="24">
         <v>13</v>
       </c>
-      <c r="E12" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
+      <c r="E12" s="24">
+        <v>1</v>
+      </c>
+      <c r="F12" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
         <v>12</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="25">
-        <v>4</v>
-      </c>
-      <c r="D13" s="25">
+      <c r="C13" s="24">
+        <v>4</v>
+      </c>
+      <c r="D13" s="24">
         <v>13</v>
       </c>
-      <c r="E13" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+      <c r="E13" s="24">
+        <v>1</v>
+      </c>
+      <c r="F13" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="25">
-        <v>4</v>
-      </c>
-      <c r="D14" s="25">
+      <c r="C14" s="24">
+        <v>4</v>
+      </c>
+      <c r="D14" s="24">
         <v>13</v>
       </c>
-      <c r="E14" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
+      <c r="E14" s="24">
+        <v>1</v>
+      </c>
+      <c r="F14" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>730</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="25">
-        <v>4</v>
-      </c>
-      <c r="D15" s="25">
+      <c r="C15" s="24">
+        <v>4</v>
+      </c>
+      <c r="D15" s="24">
         <v>13</v>
       </c>
-      <c r="E15" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
+      <c r="E15" s="24">
+        <v>1</v>
+      </c>
+      <c r="F15" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="25">
         <v>15</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="25">
         <v>3</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="25">
         <v>10</v>
       </c>
-      <c r="E16" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
+      <c r="E16" s="25">
+        <v>1</v>
+      </c>
+      <c r="F16" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="25">
         <v>16</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="25">
         <v>3</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="25">
         <v>10</v>
       </c>
-      <c r="E17" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
+      <c r="E17" s="25">
+        <v>1</v>
+      </c>
+      <c r="F17" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="25">
         <v>17</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="25">
         <v>3</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="25">
         <v>10</v>
       </c>
-      <c r="E18" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
+      <c r="E18" s="25">
+        <v>1</v>
+      </c>
+      <c r="F18" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="25">
         <v>18</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="25">
         <v>3</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="25">
         <v>10</v>
       </c>
-      <c r="E19" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
+      <c r="E19" s="25">
+        <v>1</v>
+      </c>
+      <c r="F19" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="25">
         <v>19</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <v>3</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="25">
         <v>10</v>
       </c>
-      <c r="E20" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="26">
+      <c r="E20" s="25">
+        <v>1</v>
+      </c>
+      <c r="F20" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="25">
         <v>20</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="25">
         <v>3</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="25">
         <v>10</v>
       </c>
-      <c r="E21" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="E21" s="25">
+        <v>1</v>
+      </c>
+      <c r="F21" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="N21" s="29"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="22">
         <v>21</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <v>5</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="22">
         <v>18</v>
       </c>
-      <c r="E22" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23">
+      <c r="E22" s="22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
         <v>22</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>690</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <v>5</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="22">
         <v>18</v>
       </c>
-      <c r="E23" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="24">
+      <c r="E23" s="22">
+        <v>2</v>
+      </c>
+      <c r="F23" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="23">
         <v>23</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>691</v>
       </c>
-      <c r="C24" s="24">
-        <v>4</v>
-      </c>
-      <c r="D24" s="24">
+      <c r="C24" s="23">
+        <v>4</v>
+      </c>
+      <c r="D24" s="23">
         <v>15</v>
       </c>
-      <c r="E24" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="24">
+      <c r="E24" s="23">
+        <v>2</v>
+      </c>
+      <c r="F24" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="23">
         <v>24</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>692</v>
       </c>
-      <c r="C25" s="24">
-        <v>4</v>
-      </c>
-      <c r="D25" s="24">
+      <c r="C25" s="23">
+        <v>4</v>
+      </c>
+      <c r="D25" s="23">
         <v>15</v>
       </c>
-      <c r="E25" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="24">
+      <c r="E25" s="23">
+        <v>2</v>
+      </c>
+      <c r="F25" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
         <v>25</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>693</v>
       </c>
-      <c r="C26" s="24">
-        <v>4</v>
-      </c>
-      <c r="D26" s="24">
+      <c r="C26" s="23">
+        <v>4</v>
+      </c>
+      <c r="D26" s="23">
         <v>15</v>
       </c>
-      <c r="E26" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="24">
+      <c r="E26" s="23">
+        <v>2</v>
+      </c>
+      <c r="F26" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="23">
         <v>26</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>694</v>
       </c>
-      <c r="C27" s="24">
-        <v>4</v>
-      </c>
-      <c r="D27" s="24">
+      <c r="C27" s="23">
+        <v>4</v>
+      </c>
+      <c r="D27" s="23">
         <v>15</v>
       </c>
-      <c r="E27" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="24">
+      <c r="E27" s="23">
+        <v>2</v>
+      </c>
+      <c r="F27" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="23">
         <v>27</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>695</v>
       </c>
-      <c r="C28" s="24">
-        <v>4</v>
-      </c>
-      <c r="D28" s="24">
+      <c r="C28" s="23">
+        <v>4</v>
+      </c>
+      <c r="D28" s="23">
         <v>15</v>
       </c>
-      <c r="E28" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="24">
+      <c r="E28" s="23">
+        <v>2</v>
+      </c>
+      <c r="F28" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="23">
         <v>28</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>696</v>
       </c>
-      <c r="C29" s="24">
-        <v>4</v>
-      </c>
-      <c r="D29" s="24">
+      <c r="C29" s="23">
+        <v>4</v>
+      </c>
+      <c r="D29" s="23">
         <v>15</v>
       </c>
-      <c r="E29" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="24">
+      <c r="E29" s="23">
+        <v>2</v>
+      </c>
+      <c r="F29" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
         <v>29</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>697</v>
       </c>
-      <c r="C30" s="24">
-        <v>4</v>
-      </c>
-      <c r="D30" s="24">
+      <c r="C30" s="23">
+        <v>4</v>
+      </c>
+      <c r="D30" s="23">
         <v>15</v>
       </c>
-      <c r="E30" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="24">
+      <c r="E30" s="23">
+        <v>2</v>
+      </c>
+      <c r="F30" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="23">
         <v>30</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>698</v>
       </c>
-      <c r="C31" s="24">
-        <v>4</v>
-      </c>
-      <c r="D31" s="24">
+      <c r="C31" s="23">
+        <v>4</v>
+      </c>
+      <c r="D31" s="23">
         <v>15</v>
       </c>
-      <c r="E31" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="25">
+      <c r="E31" s="23">
+        <v>2</v>
+      </c>
+      <c r="F31" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="24">
         <v>31</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>699</v>
       </c>
-      <c r="C32" s="25">
-        <v>4</v>
-      </c>
-      <c r="D32" s="25">
+      <c r="C32" s="24">
+        <v>4</v>
+      </c>
+      <c r="D32" s="24">
         <v>13</v>
       </c>
-      <c r="E32" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="25">
+      <c r="E32" s="24">
+        <v>2</v>
+      </c>
+      <c r="F32" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="24">
         <v>32</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="24" t="s">
         <v>700</v>
       </c>
-      <c r="C33" s="25">
-        <v>4</v>
-      </c>
-      <c r="D33" s="25">
+      <c r="C33" s="24">
+        <v>4</v>
+      </c>
+      <c r="D33" s="24">
         <v>13</v>
       </c>
-      <c r="E33" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="25">
+      <c r="E33" s="24">
+        <v>2</v>
+      </c>
+      <c r="F33" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="24">
         <v>33</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>701</v>
       </c>
-      <c r="C34" s="25">
-        <v>4</v>
-      </c>
-      <c r="D34" s="25">
+      <c r="C34" s="24">
+        <v>4</v>
+      </c>
+      <c r="D34" s="24">
         <v>13</v>
       </c>
-      <c r="E34" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="25">
+      <c r="E34" s="24">
+        <v>2</v>
+      </c>
+      <c r="F34" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="24">
         <v>34</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="24" t="s">
         <v>702</v>
       </c>
-      <c r="C35" s="25">
-        <v>4</v>
-      </c>
-      <c r="D35" s="25">
+      <c r="C35" s="24">
+        <v>4</v>
+      </c>
+      <c r="D35" s="24">
         <v>13</v>
       </c>
-      <c r="E35" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="26">
+      <c r="E35" s="24">
+        <v>2</v>
+      </c>
+      <c r="F35" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="25">
         <v>35</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="25" t="s">
         <v>703</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="25">
         <v>3</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="25">
         <v>10</v>
       </c>
-      <c r="E36" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="26">
+      <c r="E36" s="25">
+        <v>2</v>
+      </c>
+      <c r="F36" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="25">
         <v>36</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="25" t="s">
         <v>704</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="25">
         <v>3</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="25">
         <v>10</v>
       </c>
-      <c r="E37" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="26">
+      <c r="E37" s="25">
+        <v>2</v>
+      </c>
+      <c r="F37" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="25">
         <v>37</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="25" t="s">
         <v>705</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="25">
         <v>3</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="25">
         <v>10</v>
       </c>
-      <c r="E38" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="26">
+      <c r="E38" s="25">
+        <v>2</v>
+      </c>
+      <c r="F38" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="25">
         <v>38</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="25" t="s">
         <v>706</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="25">
         <v>3</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="25">
         <v>10</v>
       </c>
-      <c r="E39" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="26">
+      <c r="E39" s="25">
+        <v>2</v>
+      </c>
+      <c r="F39" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="25">
         <v>39</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="25" t="s">
         <v>707</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="25">
         <v>3</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D40" s="25">
         <v>10</v>
       </c>
-      <c r="E40" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="26">
+      <c r="E40" s="25">
+        <v>2</v>
+      </c>
+      <c r="F40" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="25">
         <v>40</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="25" t="s">
         <v>708</v>
       </c>
-      <c r="C41" s="26">
+      <c r="C41" s="25">
         <v>3</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D41" s="25">
         <v>10</v>
       </c>
-      <c r="E41" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="23">
+      <c r="E41" s="25">
+        <v>2</v>
+      </c>
+      <c r="F41" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="22">
         <v>41</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="22">
         <v>5</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="22">
         <v>18</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="23">
+      <c r="F42" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="22">
         <v>42</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="22">
         <v>5</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="22">
         <v>18</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="24">
+      <c r="F43" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="23">
         <v>43</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="24">
-        <v>4</v>
-      </c>
-      <c r="D44" s="24">
+      <c r="C44" s="23">
+        <v>4</v>
+      </c>
+      <c r="D44" s="23">
         <v>15</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="24">
+      <c r="F44" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="23">
         <v>44</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="24">
-        <v>4</v>
-      </c>
-      <c r="D45" s="24">
+      <c r="C45" s="23">
+        <v>4</v>
+      </c>
+      <c r="D45" s="23">
         <v>15</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="24">
+      <c r="F45" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="23">
         <v>45</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="24">
-        <v>4</v>
-      </c>
-      <c r="D46" s="24">
+      <c r="C46" s="23">
+        <v>4</v>
+      </c>
+      <c r="D46" s="23">
         <v>15</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="24">
+      <c r="F46" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="23">
         <v>46</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="24">
-        <v>4</v>
-      </c>
-      <c r="D47" s="24">
+      <c r="C47" s="23">
+        <v>4</v>
+      </c>
+      <c r="D47" s="23">
         <v>15</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="24">
+      <c r="F47" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="23">
         <v>47</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="24">
-        <v>4</v>
-      </c>
-      <c r="D48" s="24">
+      <c r="C48" s="23">
+        <v>4</v>
+      </c>
+      <c r="D48" s="23">
         <v>15</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="24">
+      <c r="F48" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="23">
         <v>48</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="24">
-        <v>4</v>
-      </c>
-      <c r="D49" s="24">
+      <c r="C49" s="23">
+        <v>4</v>
+      </c>
+      <c r="D49" s="23">
         <v>15</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="24">
+      <c r="F49" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="23">
         <v>49</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="24">
-        <v>4</v>
-      </c>
-      <c r="D50" s="24">
+      <c r="C50" s="23">
+        <v>4</v>
+      </c>
+      <c r="D50" s="23">
         <v>15</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="24">
+      <c r="F50" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="23">
         <v>50</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="24">
-        <v>4</v>
-      </c>
-      <c r="D51" s="24">
+      <c r="C51" s="23">
+        <v>4</v>
+      </c>
+      <c r="D51" s="23">
         <v>15</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="25">
+      <c r="F51" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="24">
         <v>51</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="25">
-        <v>4</v>
-      </c>
-      <c r="D52" s="25">
+      <c r="C52" s="24">
+        <v>4</v>
+      </c>
+      <c r="D52" s="24">
         <v>13</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E52" s="24">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="25">
+      <c r="F52" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="24">
         <v>52</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="25">
-        <v>4</v>
-      </c>
-      <c r="D53" s="25">
+      <c r="C53" s="24">
+        <v>4</v>
+      </c>
+      <c r="D53" s="24">
         <v>13</v>
       </c>
-      <c r="E53" s="25">
+      <c r="E53" s="24">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="25">
+      <c r="F53" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="24">
         <v>53</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="25">
-        <v>4</v>
-      </c>
-      <c r="D54" s="25">
+      <c r="C54" s="24">
+        <v>4</v>
+      </c>
+      <c r="D54" s="24">
         <v>13</v>
       </c>
-      <c r="E54" s="25">
+      <c r="E54" s="24">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="25">
+      <c r="F54" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="24">
         <v>54</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="25">
-        <v>4</v>
-      </c>
-      <c r="D55" s="25">
+      <c r="C55" s="24">
+        <v>4</v>
+      </c>
+      <c r="D55" s="24">
         <v>13</v>
       </c>
-      <c r="E55" s="25">
+      <c r="E55" s="24">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="26">
+      <c r="F55" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="25">
         <v>55</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="26">
+      <c r="C56" s="25">
         <v>3</v>
       </c>
-      <c r="D56" s="26">
+      <c r="D56" s="25">
         <v>10</v>
       </c>
-      <c r="E56" s="26">
+      <c r="E56" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="26">
+      <c r="F56" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="25">
         <v>56</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="26">
+      <c r="C57" s="25">
         <v>3</v>
       </c>
-      <c r="D57" s="26">
+      <c r="D57" s="25">
         <v>10</v>
       </c>
-      <c r="E57" s="26">
+      <c r="E57" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="26">
+      <c r="F57" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="25">
         <v>57</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="26">
+      <c r="C58" s="25">
         <v>3</v>
       </c>
-      <c r="D58" s="26">
+      <c r="D58" s="25">
         <v>10</v>
       </c>
-      <c r="E58" s="26">
+      <c r="E58" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="26">
+      <c r="F58" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="25">
         <v>58</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="26">
+      <c r="C59" s="25">
         <v>3</v>
       </c>
-      <c r="D59" s="26">
+      <c r="D59" s="25">
         <v>10</v>
       </c>
-      <c r="E59" s="26">
+      <c r="E59" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="26">
+      <c r="F59" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="25">
         <v>59</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C60" s="26">
+      <c r="C60" s="25">
         <v>3</v>
       </c>
-      <c r="D60" s="26">
+      <c r="D60" s="25">
         <v>10</v>
       </c>
-      <c r="E60" s="26">
+      <c r="E60" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="26">
+      <c r="F60" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="25">
         <v>60</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="26">
+      <c r="C61" s="25">
         <v>3</v>
       </c>
-      <c r="D61" s="26">
+      <c r="D61" s="25">
         <v>10</v>
       </c>
-      <c r="E61" s="26">
+      <c r="E61" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="23">
+      <c r="F61" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="22">
         <v>61</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="23">
+      <c r="C62" s="22">
         <v>5</v>
       </c>
-      <c r="D62" s="23">
+      <c r="D62" s="22">
         <v>18</v>
       </c>
-      <c r="E62" s="23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="23">
+      <c r="E62" s="22">
+        <v>4</v>
+      </c>
+      <c r="F62" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>光</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="22">
         <v>62</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C63" s="23">
+      <c r="C63" s="22">
         <v>5</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D63" s="22">
         <v>18</v>
       </c>
-      <c r="E63" s="23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="24">
+      <c r="E63" s="22">
+        <v>4</v>
+      </c>
+      <c r="F63" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>光</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="23">
         <v>63</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="24">
-        <v>4</v>
-      </c>
-      <c r="D64" s="24">
+      <c r="C64" s="23">
+        <v>4</v>
+      </c>
+      <c r="D64" s="23">
         <v>15</v>
       </c>
-      <c r="E64" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="24">
+      <c r="E64" s="23">
+        <v>4</v>
+      </c>
+      <c r="F64" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>光</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="23">
         <v>64</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="24">
-        <v>4</v>
-      </c>
-      <c r="D65" s="24">
+      <c r="C65" s="23">
+        <v>4</v>
+      </c>
+      <c r="D65" s="23">
         <v>15</v>
       </c>
-      <c r="E65" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="24">
+      <c r="E65" s="23">
+        <v>4</v>
+      </c>
+      <c r="F65" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>光</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="23">
         <v>65</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C66" s="24">
-        <v>4</v>
-      </c>
-      <c r="D66" s="24">
+      <c r="C66" s="23">
+        <v>4</v>
+      </c>
+      <c r="D66" s="23">
         <v>15</v>
       </c>
-      <c r="E66" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="24">
+      <c r="E66" s="23">
+        <v>4</v>
+      </c>
+      <c r="F66" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>光</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="23">
         <v>66</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="24">
-        <v>4</v>
-      </c>
-      <c r="D67" s="24">
+      <c r="C67" s="23">
+        <v>4</v>
+      </c>
+      <c r="D67" s="23">
         <v>15</v>
       </c>
-      <c r="E67" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="24">
+      <c r="E67" s="23">
+        <v>4</v>
+      </c>
+      <c r="F67" s="23" t="str">
+        <f t="shared" ref="F67:F81" si="1">VLOOKUP($E67,$O$3:$P$6,2,0)</f>
+        <v>光</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="23">
         <v>67</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C68" s="24">
-        <v>4</v>
-      </c>
-      <c r="D68" s="24">
+      <c r="C68" s="23">
+        <v>4</v>
+      </c>
+      <c r="D68" s="23">
         <v>15</v>
       </c>
-      <c r="E68" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="24">
+      <c r="E68" s="23">
+        <v>4</v>
+      </c>
+      <c r="F68" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="23">
         <v>68</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="24">
-        <v>4</v>
-      </c>
-      <c r="D69" s="24">
+      <c r="C69" s="23">
+        <v>4</v>
+      </c>
+      <c r="D69" s="23">
         <v>15</v>
       </c>
-      <c r="E69" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="24">
+      <c r="E69" s="23">
+        <v>4</v>
+      </c>
+      <c r="F69" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="23">
         <v>69</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="24">
-        <v>4</v>
-      </c>
-      <c r="D70" s="24">
+      <c r="C70" s="23">
+        <v>4</v>
+      </c>
+      <c r="D70" s="23">
         <v>15</v>
       </c>
-      <c r="E70" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="24">
+      <c r="E70" s="23">
+        <v>4</v>
+      </c>
+      <c r="F70" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="23">
         <v>70</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C71" s="24">
-        <v>4</v>
-      </c>
-      <c r="D71" s="24">
+      <c r="C71" s="23">
+        <v>4</v>
+      </c>
+      <c r="D71" s="23">
         <v>15</v>
       </c>
-      <c r="E71" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="25">
+      <c r="E71" s="23">
+        <v>4</v>
+      </c>
+      <c r="F71" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="24">
         <v>71</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C72" s="25">
-        <v>4</v>
-      </c>
-      <c r="D72" s="25">
+      <c r="C72" s="24">
+        <v>4</v>
+      </c>
+      <c r="D72" s="24">
         <v>13</v>
       </c>
-      <c r="E72" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="25">
+      <c r="E72" s="24">
+        <v>4</v>
+      </c>
+      <c r="F72" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="24">
         <v>72</v>
       </c>
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="25">
-        <v>4</v>
-      </c>
-      <c r="D73" s="25">
+      <c r="C73" s="24">
+        <v>4</v>
+      </c>
+      <c r="D73" s="24">
         <v>13</v>
       </c>
-      <c r="E73" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="25">
+      <c r="E73" s="24">
+        <v>4</v>
+      </c>
+      <c r="F73" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="24">
         <v>73</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="25">
-        <v>4</v>
-      </c>
-      <c r="D74" s="25">
+      <c r="C74" s="24">
+        <v>4</v>
+      </c>
+      <c r="D74" s="24">
         <v>13</v>
       </c>
-      <c r="E74" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="25">
+      <c r="E74" s="24">
+        <v>4</v>
+      </c>
+      <c r="F74" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="24">
         <v>74</v>
       </c>
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="25">
-        <v>4</v>
-      </c>
-      <c r="D75" s="25">
+      <c r="C75" s="24">
+        <v>4</v>
+      </c>
+      <c r="D75" s="24">
         <v>13</v>
       </c>
-      <c r="E75" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="26">
+      <c r="E75" s="24">
+        <v>4</v>
+      </c>
+      <c r="F75" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="25">
         <v>75</v>
       </c>
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="26">
+      <c r="C76" s="25">
         <v>3</v>
       </c>
-      <c r="D76" s="26">
+      <c r="D76" s="25">
         <v>10</v>
       </c>
-      <c r="E76" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="26">
+      <c r="E76" s="25">
+        <v>4</v>
+      </c>
+      <c r="F76" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="25">
         <v>76</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="26">
+      <c r="C77" s="25">
         <v>3</v>
       </c>
-      <c r="D77" s="26">
+      <c r="D77" s="25">
         <v>10</v>
       </c>
-      <c r="E77" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="26">
+      <c r="E77" s="25">
+        <v>4</v>
+      </c>
+      <c r="F77" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="25">
         <v>77</v>
       </c>
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="26">
+      <c r="C78" s="25">
         <v>3</v>
       </c>
-      <c r="D78" s="26">
+      <c r="D78" s="25">
         <v>10</v>
       </c>
-      <c r="E78" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="26">
+      <c r="E78" s="25">
+        <v>4</v>
+      </c>
+      <c r="F78" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="25">
         <v>78</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="26">
+      <c r="C79" s="25">
         <v>3</v>
       </c>
-      <c r="D79" s="26">
+      <c r="D79" s="25">
         <v>10</v>
       </c>
-      <c r="E79" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="26">
+      <c r="E79" s="25">
+        <v>4</v>
+      </c>
+      <c r="F79" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="25">
         <v>79</v>
       </c>
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="26">
+      <c r="C80" s="25">
         <v>3</v>
       </c>
-      <c r="D80" s="26">
+      <c r="D80" s="25">
         <v>10</v>
       </c>
-      <c r="E80" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="26">
+      <c r="E80" s="25">
+        <v>4</v>
+      </c>
+      <c r="F80" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="25">
         <v>80</v>
       </c>
-      <c r="B81" s="26" t="s">
+      <c r="B81" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="26">
+      <c r="C81" s="25">
         <v>3</v>
       </c>
-      <c r="D81" s="26">
+      <c r="D81" s="25">
         <v>10</v>
       </c>
-      <c r="E81" s="26">
-        <v>4</v>
+      <c r="E81" s="25">
+        <v>4</v>
+      </c>
+      <c r="F81" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
       </c>
     </row>
   </sheetData>
@@ -4403,15 +4982,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M252"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="D134" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4422,7 +5001,7 @@
       <c r="C1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E1" s="1">
@@ -4445,8 +5024,8 @@
       <c r="C2" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>67</v>
+      <c r="D2" s="26" t="s">
+        <v>714</v>
       </c>
       <c r="E2" s="4">
         <v>2</v>
@@ -4468,7 +5047,7 @@
       <c r="C3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E3" s="1">
@@ -4491,7 +5070,7 @@
       <c r="C4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="26" t="s">
         <v>71</v>
       </c>
       <c r="E4" s="1">
@@ -4514,8 +5093,8 @@
       <c r="C5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>73</v>
+      <c r="D5" s="26" t="s">
+        <v>719</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -4537,7 +5116,7 @@
       <c r="C6" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E6" s="1">
@@ -4560,7 +5139,7 @@
       <c r="C7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E7" s="4">
@@ -4589,7 +5168,7 @@
       <c r="C8" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="9" t="s">
         <v>78</v>
       </c>
       <c r="E8" s="6">
@@ -4618,7 +5197,7 @@
       <c r="C9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="9" t="s">
         <v>81</v>
       </c>
       <c r="E9" s="1">
@@ -4647,7 +5226,7 @@
       <c r="C10" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="9" t="s">
         <v>83</v>
       </c>
       <c r="E10" s="6">
@@ -4676,7 +5255,7 @@
       <c r="C11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E11" s="1">
@@ -4705,7 +5284,7 @@
       <c r="C12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="9" t="s">
         <v>87</v>
       </c>
       <c r="E12" s="1">
@@ -4728,7 +5307,7 @@
       <c r="C13" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E13" s="6">
@@ -4751,7 +5330,7 @@
       <c r="C14" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="9" t="s">
         <v>89</v>
       </c>
       <c r="E14" s="1">
@@ -4774,7 +5353,7 @@
       <c r="C15" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="26" t="s">
         <v>91</v>
       </c>
       <c r="E15" s="6">
@@ -4797,7 +5376,7 @@
       <c r="C16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="9" t="s">
         <v>93</v>
       </c>
       <c r="E16" s="6">
@@ -4843,7 +5422,7 @@
       <c r="C18" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="9" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="6">
@@ -4866,7 +5445,7 @@
       <c r="C19" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="9" t="s">
         <v>97</v>
       </c>
       <c r="E19" s="6">
@@ -4889,7 +5468,7 @@
       <c r="C20" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="9" t="s">
         <v>99</v>
       </c>
       <c r="E20" s="6">
@@ -4912,7 +5491,7 @@
       <c r="C21" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="9" t="s">
         <v>101</v>
       </c>
       <c r="E21" s="10">
@@ -4935,7 +5514,7 @@
       <c r="C22" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="9" t="s">
         <v>103</v>
       </c>
       <c r="E22" s="10">
@@ -4958,7 +5537,7 @@
       <c r="C23" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="9" t="s">
         <v>105</v>
       </c>
       <c r="E23" s="10">
@@ -4981,7 +5560,7 @@
       <c r="C24" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E24" s="10">
@@ -5004,7 +5583,7 @@
       <c r="C25" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E25" s="11">
@@ -5027,7 +5606,7 @@
       <c r="C26" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="9" t="s">
         <v>111</v>
       </c>
       <c r="E26" s="11">
@@ -5050,7 +5629,7 @@
       <c r="C27" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="9" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="11">
@@ -5073,7 +5652,7 @@
       <c r="C28" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="9" t="s">
         <v>114</v>
       </c>
       <c r="E28" s="10">
@@ -5096,7 +5675,7 @@
       <c r="C29" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="9" t="s">
         <v>116</v>
       </c>
       <c r="E29" s="10">
@@ -5119,7 +5698,7 @@
       <c r="C30" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="9" t="s">
         <v>118</v>
       </c>
       <c r="E30" s="10">
@@ -5142,7 +5721,7 @@
       <c r="C31" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="9" t="s">
         <v>120</v>
       </c>
       <c r="E31" s="10">
@@ -5165,7 +5744,7 @@
       <c r="C32" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="9" t="s">
         <v>121</v>
       </c>
       <c r="E32" s="10">
@@ -5188,7 +5767,7 @@
       <c r="C33" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="9" t="s">
         <v>123</v>
       </c>
       <c r="E33" s="10">
@@ -5211,7 +5790,7 @@
       <c r="C34" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="9" t="s">
         <v>125</v>
       </c>
       <c r="E34" s="10">
@@ -5234,7 +5813,7 @@
       <c r="C35" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="9" t="s">
         <v>127</v>
       </c>
       <c r="E35" s="10">
@@ -5257,7 +5836,7 @@
       <c r="C36" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="9" t="s">
         <v>128</v>
       </c>
       <c r="E36" s="10">
@@ -5280,7 +5859,7 @@
       <c r="C37" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="9" t="s">
         <v>130</v>
       </c>
       <c r="E37" s="10">
@@ -5303,7 +5882,7 @@
       <c r="C38" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="9" t="s">
         <v>132</v>
       </c>
       <c r="E38" s="10">
@@ -5326,7 +5905,7 @@
       <c r="C39" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="9" t="s">
         <v>134</v>
       </c>
       <c r="E39" s="10">
@@ -5349,7 +5928,7 @@
       <c r="C40" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="9" t="s">
         <v>136</v>
       </c>
       <c r="E40" s="10">
@@ -5372,7 +5951,7 @@
       <c r="C41" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="9" t="s">
         <v>138</v>
       </c>
       <c r="E41" s="11">
@@ -5395,7 +5974,7 @@
       <c r="C42" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E42" s="10">
@@ -5418,7 +5997,7 @@
       <c r="C43" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="9" t="s">
         <v>142</v>
       </c>
       <c r="E43" s="11">
@@ -5441,7 +6020,7 @@
       <c r="C44" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="9" t="s">
         <v>144</v>
       </c>
       <c r="E44" s="11">
@@ -5464,7 +6043,7 @@
       <c r="C45" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="9" t="s">
         <v>146</v>
       </c>
       <c r="E45" s="11">
@@ -5487,7 +6066,7 @@
       <c r="C46" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="9" t="s">
         <v>148</v>
       </c>
       <c r="E46" s="11">
@@ -5510,7 +6089,7 @@
       <c r="C47" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="9" t="s">
         <v>150</v>
       </c>
       <c r="E47" s="11">
@@ -5533,7 +6112,7 @@
       <c r="C48" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="9" t="s">
         <v>152</v>
       </c>
       <c r="E48" s="11">
@@ -5556,7 +6135,7 @@
       <c r="C49" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="9" t="s">
         <v>154</v>
       </c>
       <c r="E49" s="1">
@@ -5579,7 +6158,7 @@
       <c r="C50" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="9" t="s">
         <v>156</v>
       </c>
       <c r="E50" s="6">
@@ -5602,7 +6181,7 @@
       <c r="C51" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="9" t="s">
         <v>158</v>
       </c>
       <c r="E51" s="4">
@@ -5625,7 +6204,7 @@
       <c r="C52" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="9" t="s">
         <v>160</v>
       </c>
       <c r="E52" s="1">
@@ -5671,7 +6250,7 @@
       <c r="C54" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="9" t="s">
         <v>164</v>
       </c>
       <c r="E54" s="1">
@@ -5694,7 +6273,7 @@
       <c r="C55" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="9" t="s">
         <v>166</v>
       </c>
       <c r="E55" s="1">
@@ -5717,7 +6296,7 @@
       <c r="C56" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="9" t="s">
         <v>168</v>
       </c>
       <c r="E56" s="1">
@@ -5740,7 +6319,7 @@
       <c r="C57" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="9" t="s">
         <v>170</v>
       </c>
       <c r="E57" s="4">
@@ -5763,7 +6342,7 @@
       <c r="C58" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="9" t="s">
         <v>172</v>
       </c>
       <c r="E58" s="1">
@@ -5786,7 +6365,7 @@
       <c r="C59" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="9" t="s">
         <v>175</v>
       </c>
       <c r="E59" s="6">
@@ -5809,7 +6388,7 @@
       <c r="C60" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="9" t="s">
         <v>177</v>
       </c>
       <c r="E60" s="1">
@@ -5832,7 +6411,7 @@
       <c r="C61" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="9" t="s">
         <v>179</v>
       </c>
       <c r="E61" s="6">
@@ -5855,7 +6434,7 @@
       <c r="C62" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="9" t="s">
         <v>181</v>
       </c>
       <c r="E62" s="6">
@@ -5878,7 +6457,7 @@
       <c r="C63" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="9" t="s">
         <v>183</v>
       </c>
       <c r="E63" s="6">
@@ -5901,7 +6480,7 @@
       <c r="C64" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="9" t="s">
         <v>185</v>
       </c>
       <c r="E64" s="1">
@@ -5924,7 +6503,7 @@
       <c r="C65" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="9" t="s">
         <v>186</v>
       </c>
       <c r="E65" s="6">
@@ -5947,7 +6526,7 @@
       <c r="C66" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="9" t="s">
         <v>188</v>
       </c>
       <c r="E66" s="6">
@@ -5970,7 +6549,7 @@
       <c r="C67" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="9" t="s">
         <v>190</v>
       </c>
       <c r="E67" s="6">
@@ -5993,7 +6572,7 @@
       <c r="C68" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E68" s="10">
@@ -6016,7 +6595,7 @@
       <c r="C69" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="9" t="s">
         <v>194</v>
       </c>
       <c r="E69" s="10">
@@ -6039,7 +6618,7 @@
       <c r="C70" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="9" t="s">
         <v>196</v>
       </c>
       <c r="E70" s="10">
@@ -6062,7 +6641,7 @@
       <c r="C71" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="9" t="s">
         <v>198</v>
       </c>
       <c r="E71" s="10">
@@ -6085,7 +6664,7 @@
       <c r="C72" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="9" t="s">
         <v>200</v>
       </c>
       <c r="E72" s="10">
@@ -6108,7 +6687,7 @@
       <c r="C73" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="9" t="s">
         <v>202</v>
       </c>
       <c r="E73" s="10">
@@ -6131,7 +6710,7 @@
       <c r="C74" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="9" t="s">
         <v>203</v>
       </c>
       <c r="E74" s="10">
@@ -6154,7 +6733,7 @@
       <c r="C75" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="9" t="s">
         <v>205</v>
       </c>
       <c r="E75" s="10">
@@ -6177,7 +6756,7 @@
       <c r="C76" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="9" t="s">
         <v>207</v>
       </c>
       <c r="E76" s="11">
@@ -6200,7 +6779,7 @@
       <c r="C77" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="9" t="s">
         <v>209</v>
       </c>
       <c r="E77" s="10">
@@ -6223,7 +6802,7 @@
       <c r="C78" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="9" t="s">
         <v>211</v>
       </c>
       <c r="E78" s="10">
@@ -6246,8 +6825,8 @@
       <c r="C79" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>213</v>
+      <c r="D79" s="26" t="s">
+        <v>723</v>
       </c>
       <c r="E79" s="10">
         <v>1</v>
@@ -6269,7 +6848,7 @@
       <c r="C80" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="9" t="s">
         <v>215</v>
       </c>
       <c r="E80" s="11">
@@ -6286,13 +6865,13 @@
       </c>
     </row>
     <row r="81" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="26" t="s">
         <v>217</v>
       </c>
       <c r="E81" s="10">
@@ -6315,7 +6894,7 @@
       <c r="C82" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="9" t="s">
         <v>219</v>
       </c>
       <c r="E82" s="10">
@@ -6338,7 +6917,7 @@
       <c r="C83" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="9" t="s">
         <v>221</v>
       </c>
       <c r="E83" s="11">
@@ -6361,7 +6940,7 @@
       <c r="C84" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="9" t="s">
         <v>222</v>
       </c>
       <c r="E84" s="11">
@@ -6384,7 +6963,7 @@
       <c r="C85" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="9" t="s">
         <v>224</v>
       </c>
       <c r="E85" s="1">
@@ -6407,7 +6986,7 @@
       <c r="C86" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="9" t="s">
         <v>226</v>
       </c>
       <c r="E86" s="1">
@@ -6430,7 +7009,7 @@
       <c r="C87" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="26" t="s">
         <v>228</v>
       </c>
       <c r="E87" s="4">
@@ -6453,7 +7032,7 @@
       <c r="C88" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="9" t="s">
         <v>230</v>
       </c>
       <c r="E88" s="1">
@@ -6476,7 +7055,7 @@
       <c r="C89" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="9" t="s">
         <v>232</v>
       </c>
       <c r="E89" s="1">
@@ -6499,7 +7078,7 @@
       <c r="C90" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="9" t="s">
         <v>234</v>
       </c>
       <c r="E90" s="1">
@@ -6522,7 +7101,7 @@
       <c r="C91" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="9" t="s">
         <v>236</v>
       </c>
       <c r="E91" s="4">
@@ -6545,7 +7124,7 @@
       <c r="C92" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="26" t="s">
         <v>238</v>
       </c>
       <c r="E92" s="1">
@@ -6568,7 +7147,7 @@
       <c r="C93" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="9" t="s">
         <v>240</v>
       </c>
       <c r="E93" s="1">
@@ -6591,7 +7170,7 @@
       <c r="C94" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="9" t="s">
         <v>241</v>
       </c>
       <c r="E94" s="1">
@@ -6614,7 +7193,7 @@
       <c r="C95" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="9" t="s">
         <v>243</v>
       </c>
       <c r="E95" s="6">
@@ -6637,7 +7216,7 @@
       <c r="C96" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="9" t="s">
         <v>245</v>
       </c>
       <c r="E96" s="6">
@@ -6660,7 +7239,7 @@
       <c r="C97" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="9" t="s">
         <v>247</v>
       </c>
       <c r="E97" s="6">
@@ -6683,7 +7262,7 @@
       <c r="C98" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="26" t="s">
         <v>249</v>
       </c>
       <c r="E98" s="1">
@@ -6706,7 +7285,7 @@
       <c r="C99" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="26" t="s">
         <v>251</v>
       </c>
       <c r="E99" s="6">
@@ -6775,7 +7354,7 @@
       <c r="C102" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="9" t="s">
         <v>256</v>
       </c>
       <c r="E102" s="6">
@@ -6798,7 +7377,7 @@
       <c r="C103" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="9" t="s">
         <v>257</v>
       </c>
       <c r="E103" s="6">
@@ -6815,13 +7394,13 @@
       </c>
     </row>
     <row r="104" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="C104" s="13" t="s">
+      <c r="C104" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D104" s="26" t="s">
         <v>259</v>
       </c>
       <c r="E104" s="10">
@@ -6844,7 +7423,7 @@
       <c r="C105" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="9" t="s">
         <v>261</v>
       </c>
       <c r="E105" s="10">
@@ -6867,7 +7446,7 @@
       <c r="C106" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="9" t="s">
         <v>262</v>
       </c>
       <c r="E106" s="10">
@@ -6890,7 +7469,7 @@
       <c r="C107" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="9" t="s">
         <v>264</v>
       </c>
       <c r="E107" s="10">
@@ -6913,7 +7492,7 @@
       <c r="C108" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="9" t="s">
         <v>266</v>
       </c>
       <c r="E108" s="10">
@@ -6936,7 +7515,7 @@
       <c r="C109" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="9" t="s">
         <v>268</v>
       </c>
       <c r="E109" s="10">
@@ -6959,7 +7538,7 @@
       <c r="C110" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="9" t="s">
         <v>270</v>
       </c>
       <c r="E110" s="10">
@@ -6982,7 +7561,7 @@
       <c r="C111" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="9" t="s">
         <v>272</v>
       </c>
       <c r="E111" s="10">
@@ -7005,7 +7584,7 @@
       <c r="C112" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="9" t="s">
         <v>274</v>
       </c>
       <c r="E112" s="11">
@@ -7028,7 +7607,7 @@
       <c r="C113" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="26" t="s">
         <v>276</v>
       </c>
       <c r="E113" s="6">
@@ -7074,7 +7653,7 @@
       <c r="C115" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D115" s="26" t="s">
         <v>280</v>
       </c>
       <c r="E115" s="4">
@@ -7120,7 +7699,7 @@
       <c r="C117" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="9" t="s">
         <v>284</v>
       </c>
       <c r="E117" s="1">
@@ -7143,7 +7722,7 @@
       <c r="C118" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="9" t="s">
         <v>285</v>
       </c>
       <c r="E118" s="1">
@@ -7166,7 +7745,7 @@
       <c r="C119" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="26" t="s">
         <v>287</v>
       </c>
       <c r="E119" s="6">
@@ -7189,7 +7768,7 @@
       <c r="C120" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="26" t="s">
         <v>289</v>
       </c>
       <c r="E120" s="1">
@@ -7212,8 +7791,8 @@
       <c r="C121" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>291</v>
+      <c r="D121" s="26" t="s">
+        <v>722</v>
       </c>
       <c r="E121" s="6">
         <v>1</v>
@@ -7235,7 +7814,7 @@
       <c r="C122" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="9" t="s">
         <v>293</v>
       </c>
       <c r="E122" s="6">
@@ -7258,7 +7837,7 @@
       <c r="C123" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="9" t="s">
         <v>295</v>
       </c>
       <c r="E123" s="6">
@@ -7281,7 +7860,7 @@
       <c r="C124" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="9" t="s">
         <v>297</v>
       </c>
       <c r="E124" s="6">
@@ -7304,7 +7883,7 @@
       <c r="C125" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D125" s="9" t="s">
         <v>299</v>
       </c>
       <c r="E125" s="6">
@@ -7327,7 +7906,7 @@
       <c r="C126" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="9" t="s">
         <v>301</v>
       </c>
       <c r="E126" s="1">
@@ -7350,7 +7929,7 @@
       <c r="C127" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D127" s="9" t="s">
         <v>303</v>
       </c>
       <c r="E127" s="1">
@@ -7373,7 +7952,7 @@
       <c r="C128" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="9" t="s">
         <v>305</v>
       </c>
       <c r="E128" s="1">
@@ -7396,7 +7975,7 @@
       <c r="C129" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="26" t="s">
         <v>307</v>
       </c>
       <c r="E129" s="1">
@@ -7419,7 +7998,7 @@
       <c r="C130" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="9" t="s">
         <v>309</v>
       </c>
       <c r="E130" s="1">
@@ -7442,7 +8021,7 @@
       <c r="C131" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="9" t="s">
         <v>311</v>
       </c>
       <c r="E131" s="10">
@@ -7462,10 +8041,10 @@
       <c r="B132" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="C132" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="9" t="s">
         <v>313</v>
       </c>
       <c r="E132" s="10">
@@ -7485,10 +8064,10 @@
       <c r="B133" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="C133" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="9" t="s">
         <v>315</v>
       </c>
       <c r="E133" s="10">
@@ -7511,7 +8090,7 @@
       <c r="C134" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="9" t="s">
         <v>317</v>
       </c>
       <c r="E134" s="10">
@@ -7534,7 +8113,7 @@
       <c r="C135" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="26" t="s">
         <v>319</v>
       </c>
       <c r="E135" s="10">
@@ -7557,7 +8136,7 @@
       <c r="C136" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="9" t="s">
         <v>321</v>
       </c>
       <c r="E136" s="10">
@@ -7580,7 +8159,7 @@
       <c r="C137" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="D137" s="12" t="s">
+      <c r="D137" s="9" t="s">
         <v>323</v>
       </c>
       <c r="E137" s="11">
@@ -7603,7 +8182,7 @@
       <c r="C138" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="D138" s="12" t="s">
+      <c r="D138" s="9" t="s">
         <v>325</v>
       </c>
       <c r="E138" s="10">
@@ -7626,7 +8205,7 @@
       <c r="C139" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="9" t="s">
         <v>327</v>
       </c>
       <c r="E139" s="10">
@@ -7649,7 +8228,7 @@
       <c r="C140" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="9" t="s">
         <v>329</v>
       </c>
       <c r="E140" s="10">
@@ -7672,7 +8251,7 @@
       <c r="C141" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E141" s="10">
@@ -7689,10 +8268,10 @@
       </c>
     </row>
     <row r="142" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B142" s="13" t="s">
+      <c r="B142" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="C142" s="13" t="s">
+      <c r="C142" s="12" t="s">
         <v>332</v>
       </c>
       <c r="D142" s="9" t="s">
@@ -7712,13 +8291,13 @@
       </c>
     </row>
     <row r="143" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="C143" s="14" t="s">
+      <c r="C143" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="D143" s="12" t="s">
+      <c r="D143" s="9" t="s">
         <v>335</v>
       </c>
       <c r="E143" s="11">
@@ -7741,7 +8320,7 @@
       <c r="C144" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="D144" s="12" t="s">
+      <c r="D144" s="9" t="s">
         <v>336</v>
       </c>
       <c r="E144" s="11">
@@ -7764,7 +8343,7 @@
       <c r="C145" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="D145" s="12" t="s">
+      <c r="D145" s="9" t="s">
         <v>337</v>
       </c>
       <c r="E145" s="11">
@@ -7787,8 +8366,8 @@
       <c r="C146" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="D146" s="3" t="s">
-        <v>339</v>
+      <c r="D146" s="26" t="s">
+        <v>721</v>
       </c>
       <c r="E146" s="11">
         <v>1</v>
@@ -7810,7 +8389,7 @@
       <c r="C147" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D147" s="9" t="s">
         <v>341</v>
       </c>
       <c r="E147" s="10">
@@ -7833,7 +8412,7 @@
       <c r="C148" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="9" t="s">
         <v>343</v>
       </c>
       <c r="E148" s="10">
@@ -7856,7 +8435,7 @@
       <c r="C149" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="9" t="s">
         <v>344</v>
       </c>
       <c r="E149" s="11">
@@ -7879,7 +8458,7 @@
       <c r="C150" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="9" t="s">
         <v>345</v>
       </c>
       <c r="E150" s="10">
@@ -7899,10 +8478,10 @@
       <c r="B151" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="C151" s="13" t="s">
+      <c r="C151" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="D151" s="12" t="s">
+      <c r="D151" s="9" t="s">
         <v>347</v>
       </c>
       <c r="E151" s="10">
@@ -7925,7 +8504,7 @@
       <c r="C152" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D152" s="26" t="s">
         <v>349</v>
       </c>
       <c r="E152" s="10">
@@ -7948,7 +8527,7 @@
       <c r="C153" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="D153" s="12" t="s">
+      <c r="D153" s="9" t="s">
         <v>351</v>
       </c>
       <c r="E153" s="11">
@@ -7971,7 +8550,7 @@
       <c r="C154" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D154" s="9" t="s">
         <v>352</v>
       </c>
       <c r="E154" s="11">
@@ -7991,10 +8570,10 @@
       <c r="B155" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="C155" s="13" t="s">
+      <c r="C155" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="D155" s="12" t="s">
+      <c r="D155" s="9" t="s">
         <v>354</v>
       </c>
       <c r="E155" s="10">
@@ -8017,46 +8596,46 @@
       <c r="C156" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D156" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="E156" s="15"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="15"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14"/>
       <c r="H156" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="157" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B157" s="16" t="s">
+      <c r="B157" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="C157" s="16" t="s">
+      <c r="C157" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D157" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="E157" s="15"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="15"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="14"/>
+      <c r="G157" s="14"/>
       <c r="H157" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="158" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B158" s="16" t="s">
+      <c r="B158" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="C158" s="16" t="s">
+      <c r="C158" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D158" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="E158" s="15"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="15"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
+      <c r="G158" s="14"/>
       <c r="H158" t="e">
         <v>#N/A</v>
       </c>
@@ -8068,10 +8647,10 @@
       <c r="C159" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D159" s="3"/>
-      <c r="E159" s="15"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="14"/>
+      <c r="G159" s="14"/>
       <c r="H159" t="e">
         <v>#N/A</v>
       </c>
@@ -8083,10 +8662,10 @@
       <c r="C160" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D160" s="3"/>
-      <c r="E160" s="15"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="15"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="14"/>
       <c r="H160" t="e">
         <v>#N/A</v>
       </c>
@@ -8096,7 +8675,7 @@
       <c r="C161" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="D161" s="3"/>
+      <c r="D161" s="9"/>
       <c r="E161" s="3">
         <v>1</v>
       </c>
@@ -8115,16 +8694,16 @@
       <c r="C162" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D162" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E162" s="15">
-        <v>2</v>
-      </c>
-      <c r="F162" s="15">
-        <v>1</v>
-      </c>
-      <c r="G162" s="15"/>
+      <c r="E162" s="14">
+        <v>2</v>
+      </c>
+      <c r="F162" s="14">
+        <v>1</v>
+      </c>
+      <c r="G162" s="14"/>
       <c r="H162" t="e">
         <v>#N/A</v>
       </c>
@@ -8136,37 +8715,37 @@
       <c r="C163" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D163" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="E163" s="15">
-        <v>2</v>
-      </c>
-      <c r="F163" s="15">
-        <v>1</v>
-      </c>
-      <c r="G163" s="15"/>
+      <c r="E163" s="14">
+        <v>2</v>
+      </c>
+      <c r="F163" s="14">
+        <v>1</v>
+      </c>
+      <c r="G163" s="14"/>
       <c r="H163" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="164" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B164" s="17" t="s">
+      <c r="B164" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="C164" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D164" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="E164" s="15">
-        <v>2</v>
-      </c>
-      <c r="F164" s="15">
-        <v>1</v>
-      </c>
-      <c r="G164" s="15"/>
+      <c r="E164" s="14">
+        <v>2</v>
+      </c>
+      <c r="F164" s="14">
+        <v>1</v>
+      </c>
+      <c r="G164" s="14"/>
       <c r="H164" t="e">
         <v>#N/A</v>
       </c>
@@ -8178,37 +8757,37 @@
       <c r="C165" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D165" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E165" s="15">
-        <v>2</v>
-      </c>
-      <c r="F165" s="15">
-        <v>1</v>
-      </c>
-      <c r="G165" s="15"/>
+      <c r="E165" s="14">
+        <v>2</v>
+      </c>
+      <c r="F165" s="14">
+        <v>1</v>
+      </c>
+      <c r="G165" s="14"/>
       <c r="H165" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="166" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B166" s="17" t="s">
+      <c r="B166" s="16" t="s">
         <v>638</v>
       </c>
-      <c r="C166" s="17" t="s">
+      <c r="C166" s="16" t="s">
         <v>637</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E166" s="15">
-        <v>2</v>
-      </c>
-      <c r="F166" s="15">
-        <v>1</v>
-      </c>
-      <c r="G166" s="15"/>
+      <c r="E166" s="14">
+        <v>2</v>
+      </c>
+      <c r="F166" s="14">
+        <v>1</v>
+      </c>
+      <c r="G166" s="14"/>
       <c r="H166" t="e">
         <v>#N/A</v>
       </c>
@@ -8220,16 +8799,16 @@
       <c r="C167" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D167" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="E167" s="15">
-        <v>2</v>
-      </c>
-      <c r="F167" s="15">
-        <v>1</v>
-      </c>
-      <c r="G167" s="15"/>
+      <c r="E167" s="14">
+        <v>2</v>
+      </c>
+      <c r="F167" s="14">
+        <v>1</v>
+      </c>
+      <c r="G167" s="14"/>
       <c r="H167" t="e">
         <v>#N/A</v>
       </c>
@@ -8241,37 +8820,37 @@
       <c r="C168" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D168" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="E168" s="15">
-        <v>2</v>
-      </c>
-      <c r="F168" s="15">
-        <v>1</v>
-      </c>
-      <c r="G168" s="15"/>
+      <c r="E168" s="14">
+        <v>2</v>
+      </c>
+      <c r="F168" s="14">
+        <v>1</v>
+      </c>
+      <c r="G168" s="14"/>
       <c r="H168" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="169" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B169" s="17" t="s">
+      <c r="B169" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="C169" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="D169" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="E169" s="15">
-        <v>2</v>
-      </c>
-      <c r="F169" s="15">
-        <v>1</v>
-      </c>
-      <c r="G169" s="15"/>
+      <c r="E169" s="14">
+        <v>2</v>
+      </c>
+      <c r="F169" s="14">
+        <v>1</v>
+      </c>
+      <c r="G169" s="14"/>
       <c r="H169" t="e">
         <v>#N/A</v>
       </c>
@@ -8283,16 +8862,16 @@
       <c r="C170" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D170" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="E170" s="15">
-        <v>2</v>
-      </c>
-      <c r="F170" s="15">
-        <v>1</v>
-      </c>
-      <c r="G170" s="15"/>
+      <c r="E170" s="14">
+        <v>2</v>
+      </c>
+      <c r="F170" s="14">
+        <v>1</v>
+      </c>
+      <c r="G170" s="14"/>
       <c r="H170" t="e">
         <v>#N/A</v>
       </c>
@@ -8304,37 +8883,37 @@
       <c r="C171" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D171" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="E171" s="15">
-        <v>2</v>
-      </c>
-      <c r="F171" s="15">
-        <v>1</v>
-      </c>
-      <c r="G171" s="15"/>
+      <c r="E171" s="14">
+        <v>2</v>
+      </c>
+      <c r="F171" s="14">
+        <v>1</v>
+      </c>
+      <c r="G171" s="14"/>
       <c r="H171" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="172" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B172" s="17" t="s">
+      <c r="B172" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="C172" s="17" t="s">
+      <c r="C172" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D172" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="E172" s="15">
-        <v>2</v>
-      </c>
-      <c r="F172" s="15">
-        <v>1</v>
-      </c>
-      <c r="G172" s="15"/>
+      <c r="E172" s="14">
+        <v>2</v>
+      </c>
+      <c r="F172" s="14">
+        <v>1</v>
+      </c>
+      <c r="G172" s="14"/>
       <c r="H172" t="e">
         <v>#N/A</v>
       </c>
@@ -8346,16 +8925,16 @@
       <c r="C173" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="D173" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="E173" s="15">
-        <v>2</v>
-      </c>
-      <c r="F173" s="15">
-        <v>1</v>
-      </c>
-      <c r="G173" s="15"/>
+      <c r="E173" s="14">
+        <v>2</v>
+      </c>
+      <c r="F173" s="14">
+        <v>1</v>
+      </c>
+      <c r="G173" s="14"/>
       <c r="H173" t="e">
         <v>#N/A</v>
       </c>
@@ -8367,16 +8946,16 @@
       <c r="C174" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="D174" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="E174" s="15">
-        <v>2</v>
-      </c>
-      <c r="F174" s="15">
-        <v>1</v>
-      </c>
-      <c r="G174" s="15"/>
+      <c r="E174" s="14">
+        <v>2</v>
+      </c>
+      <c r="F174" s="14">
+        <v>1</v>
+      </c>
+      <c r="G174" s="14"/>
       <c r="H174" t="e">
         <v>#N/A</v>
       </c>
@@ -8388,37 +8967,37 @@
       <c r="C175" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="D175" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="E175" s="15">
-        <v>2</v>
-      </c>
-      <c r="F175" s="15">
-        <v>1</v>
-      </c>
-      <c r="G175" s="15"/>
+      <c r="E175" s="14">
+        <v>2</v>
+      </c>
+      <c r="F175" s="14">
+        <v>1</v>
+      </c>
+      <c r="G175" s="14"/>
       <c r="H175" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="176" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B176" s="17" t="s">
+      <c r="B176" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="C176" s="17" t="s">
+      <c r="C176" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="D176" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="E176" s="15">
-        <v>2</v>
-      </c>
-      <c r="F176" s="15">
-        <v>1</v>
-      </c>
-      <c r="G176" s="15"/>
+      <c r="E176" s="14">
+        <v>2</v>
+      </c>
+      <c r="F176" s="14">
+        <v>1</v>
+      </c>
+      <c r="G176" s="14"/>
       <c r="H176" t="e">
         <v>#N/A</v>
       </c>
@@ -8430,16 +9009,16 @@
       <c r="C177" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D177" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="E177" s="15">
-        <v>2</v>
-      </c>
-      <c r="F177" s="15">
-        <v>1</v>
-      </c>
-      <c r="G177" s="15"/>
+      <c r="E177" s="14">
+        <v>2</v>
+      </c>
+      <c r="F177" s="14">
+        <v>1</v>
+      </c>
+      <c r="G177" s="14"/>
       <c r="H177" t="e">
         <v>#N/A</v>
       </c>
@@ -8451,37 +9030,37 @@
       <c r="C178" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="D178" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="E178" s="15">
-        <v>2</v>
-      </c>
-      <c r="F178" s="15">
-        <v>1</v>
-      </c>
-      <c r="G178" s="15"/>
+      <c r="E178" s="14">
+        <v>2</v>
+      </c>
+      <c r="F178" s="14">
+        <v>1</v>
+      </c>
+      <c r="G178" s="14"/>
       <c r="H178" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="179" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B179" s="17" t="s">
+      <c r="B179" s="16" t="s">
         <v>645</v>
       </c>
-      <c r="C179" s="17" t="s">
+      <c r="C179" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="D179" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E179" s="15">
-        <v>2</v>
-      </c>
-      <c r="F179" s="15">
-        <v>1</v>
-      </c>
-      <c r="G179" s="15"/>
+      <c r="E179" s="14">
+        <v>2</v>
+      </c>
+      <c r="F179" s="14">
+        <v>1</v>
+      </c>
+      <c r="G179" s="14"/>
       <c r="H179" t="e">
         <v>#N/A</v>
       </c>
@@ -8493,16 +9072,16 @@
       <c r="C180" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="D180" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="E180" s="15">
-        <v>2</v>
-      </c>
-      <c r="F180" s="15">
-        <v>1</v>
-      </c>
-      <c r="G180" s="15"/>
+      <c r="E180" s="14">
+        <v>2</v>
+      </c>
+      <c r="F180" s="14">
+        <v>1</v>
+      </c>
+      <c r="G180" s="14"/>
       <c r="H180" t="e">
         <v>#N/A</v>
       </c>
@@ -8514,58 +9093,58 @@
       <c r="C181" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="D181" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="E181" s="15">
-        <v>2</v>
-      </c>
-      <c r="F181" s="15">
-        <v>1</v>
-      </c>
-      <c r="G181" s="15"/>
+      <c r="E181" s="14">
+        <v>2</v>
+      </c>
+      <c r="F181" s="14">
+        <v>1</v>
+      </c>
+      <c r="G181" s="14"/>
       <c r="H181" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="182" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B182" s="17" t="s">
+      <c r="B182" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="C182" s="17" t="s">
+      <c r="C182" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D182" s="3" t="s">
+      <c r="D182" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="E182" s="15">
-        <v>2</v>
-      </c>
-      <c r="F182" s="15">
-        <v>1</v>
-      </c>
-      <c r="G182" s="15"/>
+      <c r="E182" s="14">
+        <v>2</v>
+      </c>
+      <c r="F182" s="14">
+        <v>1</v>
+      </c>
+      <c r="G182" s="14"/>
       <c r="H182" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="183" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B183" s="15" t="s">
+      <c r="B183" s="14" t="s">
         <v>647</v>
       </c>
-      <c r="C183" s="15" t="s">
+      <c r="C183" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="D183" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E183" s="15">
-        <v>2</v>
-      </c>
-      <c r="F183" s="15">
-        <v>1</v>
-      </c>
-      <c r="G183" s="15"/>
+      <c r="E183" s="14">
+        <v>2</v>
+      </c>
+      <c r="F183" s="14">
+        <v>1</v>
+      </c>
+      <c r="G183" s="14"/>
       <c r="H183" t="e">
         <v>#N/A</v>
       </c>
@@ -8577,16 +9156,16 @@
       <c r="C184" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="D184" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="E184" s="15">
-        <v>2</v>
-      </c>
-      <c r="F184" s="15">
-        <v>1</v>
-      </c>
-      <c r="G184" s="15"/>
+      <c r="E184" s="14">
+        <v>2</v>
+      </c>
+      <c r="F184" s="14">
+        <v>1</v>
+      </c>
+      <c r="G184" s="14"/>
       <c r="H184" t="e">
         <v>#N/A</v>
       </c>
@@ -8598,16 +9177,16 @@
       <c r="C185" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="D185" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="E185" s="15">
-        <v>2</v>
-      </c>
-      <c r="F185" s="15">
-        <v>1</v>
-      </c>
-      <c r="G185" s="15"/>
+      <c r="E185" s="14">
+        <v>2</v>
+      </c>
+      <c r="F185" s="14">
+        <v>1</v>
+      </c>
+      <c r="G185" s="14"/>
       <c r="H185" t="e">
         <v>#N/A</v>
       </c>
@@ -8619,37 +9198,37 @@
       <c r="C186" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="D186" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="E186" s="15">
-        <v>2</v>
-      </c>
-      <c r="F186" s="15">
-        <v>1</v>
-      </c>
-      <c r="G186" s="15"/>
+      <c r="E186" s="14">
+        <v>2</v>
+      </c>
+      <c r="F186" s="14">
+        <v>1</v>
+      </c>
+      <c r="G186" s="14"/>
       <c r="H186" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="187" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B187" s="17" t="s">
+      <c r="B187" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="C187" s="17" t="s">
+      <c r="C187" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="D187" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="E187" s="15">
-        <v>2</v>
-      </c>
-      <c r="F187" s="15">
-        <v>1</v>
-      </c>
-      <c r="G187" s="15"/>
+      <c r="E187" s="14">
+        <v>2</v>
+      </c>
+      <c r="F187" s="14">
+        <v>1</v>
+      </c>
+      <c r="G187" s="14"/>
       <c r="H187" t="e">
         <v>#N/A</v>
       </c>
@@ -8661,37 +9240,37 @@
       <c r="C188" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="D188" s="3" t="s">
+      <c r="D188" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E188" s="15">
-        <v>2</v>
-      </c>
-      <c r="F188" s="15">
-        <v>1</v>
-      </c>
-      <c r="G188" s="15"/>
+      <c r="E188" s="14">
+        <v>2</v>
+      </c>
+      <c r="F188" s="14">
+        <v>1</v>
+      </c>
+      <c r="G188" s="14"/>
       <c r="H188" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="189" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B189" s="17" t="s">
+      <c r="B189" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="C189" s="17" t="s">
+      <c r="C189" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D189" s="3" t="s">
+      <c r="D189" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E189" s="15">
-        <v>2</v>
-      </c>
-      <c r="F189" s="15">
-        <v>1</v>
-      </c>
-      <c r="G189" s="15"/>
+      <c r="E189" s="14">
+        <v>2</v>
+      </c>
+      <c r="F189" s="14">
+        <v>1</v>
+      </c>
+      <c r="G189" s="14"/>
       <c r="H189" t="e">
         <v>#N/A</v>
       </c>
@@ -8703,16 +9282,16 @@
       <c r="C190" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="D190" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="E190" s="15">
-        <v>2</v>
-      </c>
-      <c r="F190" s="15">
-        <v>2</v>
-      </c>
-      <c r="G190" s="15"/>
+      <c r="E190" s="14">
+        <v>2</v>
+      </c>
+      <c r="F190" s="14">
+        <v>2</v>
+      </c>
+      <c r="G190" s="14"/>
       <c r="H190" t="e">
         <v>#N/A</v>
       </c>
@@ -8721,40 +9300,40 @@
       <c r="B191" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="C191" s="14" t="s">
+      <c r="C191" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D191" s="3" t="s">
+      <c r="D191" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="E191" s="15">
-        <v>2</v>
-      </c>
-      <c r="F191" s="15">
-        <v>2</v>
-      </c>
-      <c r="G191" s="15"/>
+      <c r="E191" s="14">
+        <v>2</v>
+      </c>
+      <c r="F191" s="14">
+        <v>2</v>
+      </c>
+      <c r="G191" s="14"/>
       <c r="H191" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="192" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B192" s="17" t="s">
+      <c r="B192" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="C192" s="18" t="s">
+      <c r="C192" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="D192" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="E192" s="15">
-        <v>2</v>
-      </c>
-      <c r="F192" s="15">
-        <v>2</v>
-      </c>
-      <c r="G192" s="15"/>
+      <c r="E192" s="14">
+        <v>2</v>
+      </c>
+      <c r="F192" s="14">
+        <v>2</v>
+      </c>
+      <c r="G192" s="14"/>
       <c r="H192" t="e">
         <v>#N/A</v>
       </c>
@@ -8763,61 +9342,61 @@
       <c r="B193" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="C193" s="14" t="s">
+      <c r="C193" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="D193" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="E193" s="15">
-        <v>2</v>
-      </c>
-      <c r="F193" s="15">
-        <v>2</v>
-      </c>
-      <c r="G193" s="15"/>
+      <c r="E193" s="14">
+        <v>2</v>
+      </c>
+      <c r="F193" s="14">
+        <v>2</v>
+      </c>
+      <c r="G193" s="14"/>
       <c r="H193" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="194" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B194" s="14" t="s">
+      <c r="B194" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="C194" s="14" t="s">
+      <c r="C194" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D194" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="E194" s="19">
-        <v>2</v>
-      </c>
-      <c r="F194" s="15">
-        <v>2</v>
-      </c>
-      <c r="G194" s="19"/>
+      <c r="E194" s="18">
+        <v>2</v>
+      </c>
+      <c r="F194" s="14">
+        <v>2</v>
+      </c>
+      <c r="G194" s="18"/>
       <c r="H194" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="195" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B195" s="18" t="s">
+      <c r="B195" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="C195" s="18" t="s">
+      <c r="C195" s="17" t="s">
         <v>161</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="E195" s="19">
-        <v>2</v>
-      </c>
-      <c r="F195" s="15">
-        <v>2</v>
-      </c>
-      <c r="G195" s="19"/>
+      <c r="E195" s="18">
+        <v>2</v>
+      </c>
+      <c r="F195" s="14">
+        <v>2</v>
+      </c>
+      <c r="G195" s="18"/>
       <c r="H195" t="e">
         <v>#N/A</v>
       </c>
@@ -8829,16 +9408,16 @@
       <c r="C196" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D196" s="3" t="s">
+      <c r="D196" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="E196" s="15">
-        <v>2</v>
-      </c>
-      <c r="F196" s="15">
-        <v>2</v>
-      </c>
-      <c r="G196" s="15"/>
+      <c r="E196" s="14">
+        <v>2</v>
+      </c>
+      <c r="F196" s="14">
+        <v>2</v>
+      </c>
+      <c r="G196" s="14"/>
       <c r="H196" t="e">
         <v>#N/A</v>
       </c>
@@ -8850,58 +9429,58 @@
       <c r="C197" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="D197" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="E197" s="15">
-        <v>2</v>
-      </c>
-      <c r="F197" s="15">
-        <v>2</v>
-      </c>
-      <c r="G197" s="15"/>
+      <c r="E197" s="14">
+        <v>2</v>
+      </c>
+      <c r="F197" s="14">
+        <v>2</v>
+      </c>
+      <c r="G197" s="14"/>
       <c r="H197" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="198" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B198" s="17" t="s">
+      <c r="B198" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="C198" s="17" t="s">
+      <c r="C198" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D198" s="3" t="s">
+      <c r="D198" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="E198" s="15">
-        <v>2</v>
-      </c>
-      <c r="F198" s="15">
-        <v>2</v>
-      </c>
-      <c r="G198" s="15"/>
+      <c r="E198" s="14">
+        <v>2</v>
+      </c>
+      <c r="F198" s="14">
+        <v>2</v>
+      </c>
+      <c r="G198" s="14"/>
       <c r="H198" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="199" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B199" s="15" t="s">
+      <c r="B199" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="C199" s="15" t="s">
+      <c r="C199" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="D199" s="3" t="s">
+      <c r="D199" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="E199" s="15">
-        <v>2</v>
-      </c>
-      <c r="F199" s="15">
-        <v>2</v>
-      </c>
-      <c r="G199" s="15"/>
+      <c r="E199" s="14">
+        <v>2</v>
+      </c>
+      <c r="F199" s="14">
+        <v>2</v>
+      </c>
+      <c r="G199" s="14"/>
       <c r="H199" t="e">
         <v>#N/A</v>
       </c>
@@ -8913,16 +9492,16 @@
       <c r="C200" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D200" s="3" t="s">
+      <c r="D200" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="E200" s="15">
-        <v>2</v>
-      </c>
-      <c r="F200" s="15">
-        <v>1</v>
-      </c>
-      <c r="G200" s="15"/>
+      <c r="E200" s="14">
+        <v>2</v>
+      </c>
+      <c r="F200" s="14">
+        <v>1</v>
+      </c>
+      <c r="G200" s="14"/>
       <c r="H200" t="e">
         <v>#N/A</v>
       </c>
@@ -8934,37 +9513,37 @@
       <c r="C201" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="D201" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="E201" s="15">
-        <v>2</v>
-      </c>
-      <c r="F201" s="15">
-        <v>1</v>
-      </c>
-      <c r="G201" s="15"/>
+      <c r="E201" s="14">
+        <v>2</v>
+      </c>
+      <c r="F201" s="14">
+        <v>1</v>
+      </c>
+      <c r="G201" s="14"/>
       <c r="H201" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="202" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B202" s="17" t="s">
+      <c r="B202" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="C202" s="17" t="s">
+      <c r="C202" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="D202" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="E202" s="15">
-        <v>2</v>
-      </c>
-      <c r="F202" s="15">
-        <v>1</v>
-      </c>
-      <c r="G202" s="15"/>
+      <c r="E202" s="14">
+        <v>2</v>
+      </c>
+      <c r="F202" s="14">
+        <v>1</v>
+      </c>
+      <c r="G202" s="14"/>
       <c r="H202" t="e">
         <v>#N/A</v>
       </c>
@@ -8976,121 +9555,121 @@
       <c r="C203" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="D203" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E203" s="15">
-        <v>2</v>
-      </c>
-      <c r="F203" s="15">
-        <v>1</v>
-      </c>
-      <c r="G203" s="15"/>
+      <c r="E203" s="14">
+        <v>2</v>
+      </c>
+      <c r="F203" s="14">
+        <v>1</v>
+      </c>
+      <c r="G203" s="14"/>
       <c r="H203" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="204" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B204" s="17" t="s">
+      <c r="B204" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="C204" s="17" t="s">
+      <c r="C204" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D204" s="3" t="s">
+      <c r="D204" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E204" s="15">
-        <v>2</v>
-      </c>
-      <c r="F204" s="15">
-        <v>1</v>
-      </c>
-      <c r="G204" s="15"/>
+      <c r="E204" s="14">
+        <v>2</v>
+      </c>
+      <c r="F204" s="14">
+        <v>1</v>
+      </c>
+      <c r="G204" s="14"/>
       <c r="H204" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="205" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B205" s="15" t="s">
+      <c r="B205" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="C205" s="15" t="s">
+      <c r="C205" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D205" s="3" t="s">
+      <c r="D205" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E205" s="15">
-        <v>2</v>
-      </c>
-      <c r="F205" s="15">
-        <v>1</v>
-      </c>
-      <c r="G205" s="15"/>
+      <c r="E205" s="14">
+        <v>2</v>
+      </c>
+      <c r="F205" s="14">
+        <v>1</v>
+      </c>
+      <c r="G205" s="14"/>
       <c r="H205" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="206" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B206" s="15" t="s">
+      <c r="B206" s="14" t="s">
         <v>660</v>
       </c>
-      <c r="C206" s="15" t="s">
+      <c r="C206" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D206" s="3" t="s">
+      <c r="D206" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E206" s="15">
-        <v>2</v>
-      </c>
-      <c r="F206" s="15">
-        <v>1</v>
-      </c>
-      <c r="G206" s="15"/>
+      <c r="E206" s="14">
+        <v>2</v>
+      </c>
+      <c r="F206" s="14">
+        <v>1</v>
+      </c>
+      <c r="G206" s="14"/>
       <c r="H206" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="207" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B207" s="15" t="s">
+      <c r="B207" s="14" t="s">
         <v>661</v>
       </c>
-      <c r="C207" s="15" t="s">
+      <c r="C207" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="D207" s="3" t="s">
+      <c r="D207" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E207" s="15">
-        <v>2</v>
-      </c>
-      <c r="F207" s="15">
-        <v>2</v>
-      </c>
-      <c r="G207" s="15"/>
+      <c r="E207" s="14">
+        <v>2</v>
+      </c>
+      <c r="F207" s="14">
+        <v>2</v>
+      </c>
+      <c r="G207" s="14"/>
       <c r="H207" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="208" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B208" s="15" t="s">
+      <c r="B208" s="14" t="s">
         <v>662</v>
       </c>
-      <c r="C208" s="15" t="s">
+      <c r="C208" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="D208" s="3" t="s">
+      <c r="D208" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E208" s="15">
-        <v>2</v>
-      </c>
-      <c r="F208" s="15">
-        <v>2</v>
-      </c>
-      <c r="G208" s="15"/>
+      <c r="E208" s="14">
+        <v>2</v>
+      </c>
+      <c r="F208" s="14">
+        <v>2</v>
+      </c>
+      <c r="G208" s="14"/>
       <c r="H208" t="e">
         <v>#N/A</v>
       </c>
@@ -9102,16 +9681,16 @@
       <c r="C209" s="11" t="s">
         <v>664</v>
       </c>
-      <c r="D209" s="3" t="s">
+      <c r="D209" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="E209" s="15">
-        <v>2</v>
-      </c>
-      <c r="F209" s="15">
-        <v>2</v>
-      </c>
-      <c r="G209" s="15"/>
+      <c r="E209" s="14">
+        <v>2</v>
+      </c>
+      <c r="F209" s="14">
+        <v>2</v>
+      </c>
+      <c r="G209" s="14"/>
       <c r="H209" t="e">
         <v>#N/A</v>
       </c>
@@ -9123,37 +9702,37 @@
       <c r="C210" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D210" s="3" t="s">
+      <c r="D210" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="E210" s="15">
-        <v>2</v>
-      </c>
-      <c r="F210" s="15">
-        <v>2</v>
-      </c>
-      <c r="G210" s="15"/>
+      <c r="E210" s="14">
+        <v>2</v>
+      </c>
+      <c r="F210" s="14">
+        <v>2</v>
+      </c>
+      <c r="G210" s="14"/>
       <c r="H210" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="211" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B211" s="17" t="s">
+      <c r="B211" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="C211" s="17" t="s">
+      <c r="C211" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="D211" s="3" t="s">
+      <c r="D211" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="E211" s="15">
-        <v>2</v>
-      </c>
-      <c r="F211" s="15">
-        <v>2</v>
-      </c>
-      <c r="G211" s="15"/>
+      <c r="E211" s="14">
+        <v>2</v>
+      </c>
+      <c r="F211" s="14">
+        <v>2</v>
+      </c>
+      <c r="G211" s="14"/>
       <c r="H211" t="e">
         <v>#N/A</v>
       </c>
@@ -9165,37 +9744,37 @@
       <c r="C212" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="D212" s="3" t="s">
+      <c r="D212" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="E212" s="15">
-        <v>2</v>
-      </c>
-      <c r="F212" s="15">
-        <v>2</v>
-      </c>
-      <c r="G212" s="15"/>
+      <c r="E212" s="14">
+        <v>2</v>
+      </c>
+      <c r="F212" s="14">
+        <v>2</v>
+      </c>
+      <c r="G212" s="14"/>
       <c r="H212" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="213" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B213" s="17" t="s">
+      <c r="B213" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="C213" s="17" t="s">
+      <c r="C213" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="D213" s="3" t="s">
+      <c r="D213" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="E213" s="15">
-        <v>2</v>
-      </c>
-      <c r="F213" s="15">
-        <v>2</v>
-      </c>
-      <c r="G213" s="15"/>
+      <c r="E213" s="14">
+        <v>2</v>
+      </c>
+      <c r="F213" s="14">
+        <v>2</v>
+      </c>
+      <c r="G213" s="14"/>
       <c r="H213" t="e">
         <v>#N/A</v>
       </c>
@@ -9207,16 +9786,16 @@
       <c r="C214" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D214" s="3" t="s">
+      <c r="D214" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="E214" s="15">
-        <v>2</v>
-      </c>
-      <c r="F214" s="15">
-        <v>1</v>
-      </c>
-      <c r="G214" s="15"/>
+      <c r="E214" s="14">
+        <v>2</v>
+      </c>
+      <c r="F214" s="14">
+        <v>1</v>
+      </c>
+      <c r="G214" s="14"/>
       <c r="H214" t="e">
         <v>#N/A</v>
       </c>
@@ -9228,37 +9807,37 @@
       <c r="C215" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D215" s="3" t="s">
+      <c r="D215" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="E215" s="15">
-        <v>2</v>
-      </c>
-      <c r="F215" s="15">
-        <v>1</v>
-      </c>
-      <c r="G215" s="15"/>
+      <c r="E215" s="14">
+        <v>2</v>
+      </c>
+      <c r="F215" s="14">
+        <v>1</v>
+      </c>
+      <c r="G215" s="14"/>
       <c r="H215" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="216" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B216" s="17" t="s">
+      <c r="B216" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="C216" s="17" t="s">
+      <c r="C216" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="D216" s="3" t="s">
+      <c r="D216" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="E216" s="15">
-        <v>2</v>
-      </c>
-      <c r="F216" s="15">
-        <v>1</v>
-      </c>
-      <c r="G216" s="15"/>
+      <c r="E216" s="14">
+        <v>2</v>
+      </c>
+      <c r="F216" s="14">
+        <v>1</v>
+      </c>
+      <c r="G216" s="14"/>
       <c r="H216" t="e">
         <v>#N/A</v>
       </c>
@@ -9270,16 +9849,16 @@
       <c r="C217" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="D217" s="3" t="s">
+      <c r="D217" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="E217" s="15">
-        <v>2</v>
-      </c>
-      <c r="F217" s="15">
-        <v>1</v>
-      </c>
-      <c r="G217" s="15"/>
+      <c r="E217" s="14">
+        <v>2</v>
+      </c>
+      <c r="F217" s="14">
+        <v>1</v>
+      </c>
+      <c r="G217" s="14"/>
       <c r="H217" t="e">
         <v>#N/A</v>
       </c>
@@ -9291,58 +9870,58 @@
       <c r="C218" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="D218" s="3" t="s">
+      <c r="D218" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="E218" s="15">
-        <v>2</v>
-      </c>
-      <c r="F218" s="15">
-        <v>1</v>
-      </c>
-      <c r="G218" s="15"/>
+      <c r="E218" s="14">
+        <v>2</v>
+      </c>
+      <c r="F218" s="14">
+        <v>1</v>
+      </c>
+      <c r="G218" s="14"/>
       <c r="H218" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="219" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B219" s="17" t="s">
+      <c r="B219" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="C219" s="17" t="s">
+      <c r="C219" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="D219" s="3" t="s">
+      <c r="D219" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="E219" s="15">
-        <v>2</v>
-      </c>
-      <c r="F219" s="15">
-        <v>1</v>
-      </c>
-      <c r="G219" s="15"/>
+      <c r="E219" s="14">
+        <v>2</v>
+      </c>
+      <c r="F219" s="14">
+        <v>1</v>
+      </c>
+      <c r="G219" s="14"/>
       <c r="H219" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="220" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B220" s="17" t="s">
+      <c r="B220" s="16" t="s">
         <v>668</v>
       </c>
-      <c r="C220" s="17" t="s">
+      <c r="C220" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="D220" s="3" t="s">
+      <c r="D220" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E220" s="15">
-        <v>2</v>
-      </c>
-      <c r="F220" s="15">
-        <v>2</v>
-      </c>
-      <c r="G220" s="15"/>
+      <c r="E220" s="14">
+        <v>2</v>
+      </c>
+      <c r="F220" s="14">
+        <v>2</v>
+      </c>
+      <c r="G220" s="14"/>
       <c r="H220" t="e">
         <v>#N/A</v>
       </c>
@@ -9354,37 +9933,37 @@
       <c r="C221" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="D221" s="3" t="s">
+      <c r="D221" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E221" s="15">
-        <v>2</v>
-      </c>
-      <c r="F221" s="15">
-        <v>2</v>
-      </c>
-      <c r="G221" s="15"/>
+      <c r="E221" s="14">
+        <v>2</v>
+      </c>
+      <c r="F221" s="14">
+        <v>2</v>
+      </c>
+      <c r="G221" s="14"/>
       <c r="H221" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="222" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B222" s="17" t="s">
+      <c r="B222" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="C222" s="17" t="s">
+      <c r="C222" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D222" s="3" t="s">
+      <c r="D222" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E222" s="15">
-        <v>2</v>
-      </c>
-      <c r="F222" s="15">
-        <v>2</v>
-      </c>
-      <c r="G222" s="15"/>
+      <c r="E222" s="14">
+        <v>2</v>
+      </c>
+      <c r="F222" s="14">
+        <v>2</v>
+      </c>
+      <c r="G222" s="14"/>
       <c r="H222" t="e">
         <v>#N/A</v>
       </c>
@@ -9396,16 +9975,16 @@
       <c r="C223" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D223" s="3" t="s">
+      <c r="D223" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="E223" s="15">
-        <v>2</v>
-      </c>
-      <c r="F223" s="15">
-        <v>2</v>
-      </c>
-      <c r="G223" s="15"/>
+      <c r="E223" s="14">
+        <v>2</v>
+      </c>
+      <c r="F223" s="14">
+        <v>2</v>
+      </c>
+      <c r="G223" s="14"/>
       <c r="H223" t="e">
         <v>#N/A</v>
       </c>
@@ -9417,37 +9996,37 @@
       <c r="C224" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D224" s="3" t="s">
+      <c r="D224" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="E224" s="15">
-        <v>2</v>
-      </c>
-      <c r="F224" s="15">
-        <v>2</v>
-      </c>
-      <c r="G224" s="15"/>
+      <c r="E224" s="14">
+        <v>2</v>
+      </c>
+      <c r="F224" s="14">
+        <v>2</v>
+      </c>
+      <c r="G224" s="14"/>
       <c r="H224" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="225" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B225" s="17" t="s">
+      <c r="B225" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="C225" s="17" t="s">
+      <c r="C225" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="D225" s="3" t="s">
+      <c r="D225" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="E225" s="15">
-        <v>2</v>
-      </c>
-      <c r="F225" s="15">
-        <v>2</v>
-      </c>
-      <c r="G225" s="15"/>
+      <c r="E225" s="14">
+        <v>2</v>
+      </c>
+      <c r="F225" s="14">
+        <v>2</v>
+      </c>
+      <c r="G225" s="14"/>
       <c r="H225" t="e">
         <v>#N/A</v>
       </c>
@@ -9459,16 +10038,16 @@
       <c r="C226" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="D226" s="3" t="s">
+      <c r="D226" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="E226" s="15">
-        <v>2</v>
-      </c>
-      <c r="F226" s="15">
-        <v>2</v>
-      </c>
-      <c r="G226" s="15"/>
+      <c r="E226" s="14">
+        <v>2</v>
+      </c>
+      <c r="F226" s="14">
+        <v>2</v>
+      </c>
+      <c r="G226" s="14"/>
       <c r="H226" t="e">
         <v>#N/A</v>
       </c>
@@ -9480,58 +10059,58 @@
       <c r="C227" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="D227" s="3" t="s">
+      <c r="D227" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="E227" s="15">
-        <v>2</v>
-      </c>
-      <c r="F227" s="15">
-        <v>2</v>
-      </c>
-      <c r="G227" s="15"/>
+      <c r="E227" s="14">
+        <v>2</v>
+      </c>
+      <c r="F227" s="14">
+        <v>2</v>
+      </c>
+      <c r="G227" s="14"/>
       <c r="H227" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="228" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B228" s="17" t="s">
+      <c r="B228" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="C228" s="17" t="s">
+      <c r="C228" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="D228" s="3" t="s">
+      <c r="D228" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="E228" s="15">
-        <v>2</v>
-      </c>
-      <c r="F228" s="15">
-        <v>2</v>
-      </c>
-      <c r="G228" s="15"/>
+      <c r="E228" s="14">
+        <v>2</v>
+      </c>
+      <c r="F228" s="14">
+        <v>2</v>
+      </c>
+      <c r="G228" s="14"/>
       <c r="H228" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="229" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B229" s="15" t="s">
+      <c r="B229" s="14" t="s">
         <v>672</v>
       </c>
-      <c r="C229" s="15" t="s">
+      <c r="C229" s="14" t="s">
         <v>673</v>
       </c>
-      <c r="D229" s="3" t="s">
+      <c r="D229" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="E229" s="15">
-        <v>2</v>
-      </c>
-      <c r="F229" s="15">
-        <v>2</v>
-      </c>
-      <c r="G229" s="15"/>
+      <c r="E229" s="14">
+        <v>2</v>
+      </c>
+      <c r="F229" s="14">
+        <v>2</v>
+      </c>
+      <c r="G229" s="14"/>
       <c r="H229" t="e">
         <v>#N/A</v>
       </c>
@@ -9543,16 +10122,16 @@
       <c r="C230" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D230" s="3" t="s">
+      <c r="D230" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="E230" s="15">
-        <v>2</v>
-      </c>
-      <c r="F230" s="15">
-        <v>2</v>
-      </c>
-      <c r="G230" s="15"/>
+      <c r="E230" s="14">
+        <v>2</v>
+      </c>
+      <c r="F230" s="14">
+        <v>2</v>
+      </c>
+      <c r="G230" s="14"/>
       <c r="H230" t="e">
         <v>#N/A</v>
       </c>
@@ -9564,58 +10143,58 @@
       <c r="C231" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D231" s="3" t="s">
+      <c r="D231" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="E231" s="15">
-        <v>2</v>
-      </c>
-      <c r="F231" s="15">
-        <v>2</v>
-      </c>
-      <c r="G231" s="15"/>
+      <c r="E231" s="14">
+        <v>2</v>
+      </c>
+      <c r="F231" s="14">
+        <v>2</v>
+      </c>
+      <c r="G231" s="14"/>
       <c r="H231" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="232" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B232" s="17" t="s">
+      <c r="B232" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="C232" s="17" t="s">
+      <c r="C232" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="D232" s="3" t="s">
+      <c r="D232" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="E232" s="15">
-        <v>2</v>
-      </c>
-      <c r="F232" s="15">
-        <v>2</v>
-      </c>
-      <c r="G232" s="15"/>
+      <c r="E232" s="14">
+        <v>2</v>
+      </c>
+      <c r="F232" s="14">
+        <v>2</v>
+      </c>
+      <c r="G232" s="14"/>
       <c r="H232" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="233" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B233" s="17" t="s">
+      <c r="B233" s="16" t="s">
         <v>675</v>
       </c>
-      <c r="C233" s="17" t="s">
+      <c r="C233" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="D233" s="3" t="s">
+      <c r="D233" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="E233" s="15">
-        <v>2</v>
-      </c>
-      <c r="F233" s="15">
-        <v>2</v>
-      </c>
-      <c r="G233" s="15"/>
+      <c r="E233" s="14">
+        <v>2</v>
+      </c>
+      <c r="F233" s="14">
+        <v>2</v>
+      </c>
+      <c r="G233" s="14"/>
       <c r="H233" t="e">
         <v>#N/A</v>
       </c>
@@ -9627,37 +10206,37 @@
       <c r="C234" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="D234" s="3" t="s">
+      <c r="D234" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="E234" s="15">
-        <v>2</v>
-      </c>
-      <c r="F234" s="15">
-        <v>1</v>
-      </c>
-      <c r="G234" s="15"/>
+      <c r="E234" s="14">
+        <v>2</v>
+      </c>
+      <c r="F234" s="14">
+        <v>1</v>
+      </c>
+      <c r="G234" s="14"/>
       <c r="H234" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="235" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B235" s="17" t="s">
+      <c r="B235" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="C235" s="17" t="s">
+      <c r="C235" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="D235" s="3" t="s">
+      <c r="D235" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="E235" s="15">
-        <v>2</v>
-      </c>
-      <c r="F235" s="15">
-        <v>1</v>
-      </c>
-      <c r="G235" s="15"/>
+      <c r="E235" s="14">
+        <v>2</v>
+      </c>
+      <c r="F235" s="14">
+        <v>1</v>
+      </c>
+      <c r="G235" s="14"/>
       <c r="H235" t="e">
         <v>#N/A</v>
       </c>
@@ -9669,79 +10248,79 @@
       <c r="C236" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="D236" s="3" t="s">
+      <c r="D236" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E236" s="15">
-        <v>2</v>
-      </c>
-      <c r="F236" s="15">
-        <v>2</v>
-      </c>
-      <c r="G236" s="15"/>
+      <c r="E236" s="14">
+        <v>2</v>
+      </c>
+      <c r="F236" s="14">
+        <v>2</v>
+      </c>
+      <c r="G236" s="14"/>
       <c r="H236" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="237" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B237" s="17" t="s">
+      <c r="B237" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="C237" s="17" t="s">
+      <c r="C237" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="D237" s="3" t="s">
+      <c r="D237" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E237" s="15">
-        <v>2</v>
-      </c>
-      <c r="F237" s="15">
-        <v>2</v>
-      </c>
-      <c r="G237" s="15"/>
+      <c r="E237" s="14">
+        <v>2</v>
+      </c>
+      <c r="F237" s="14">
+        <v>2</v>
+      </c>
+      <c r="G237" s="14"/>
       <c r="H237" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="238" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B238" s="15" t="s">
+      <c r="B238" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="C238" s="15" t="s">
+      <c r="C238" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="D238" s="3" t="s">
+      <c r="D238" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="E238" s="15">
-        <v>2</v>
-      </c>
-      <c r="F238" s="15">
-        <v>2</v>
-      </c>
-      <c r="G238" s="15"/>
+      <c r="E238" s="14">
+        <v>2</v>
+      </c>
+      <c r="F238" s="14">
+        <v>2</v>
+      </c>
+      <c r="G238" s="14"/>
       <c r="H238" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="239" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B239" s="17" t="s">
+      <c r="B239" s="16" t="s">
         <v>679</v>
       </c>
-      <c r="C239" s="17" t="s">
+      <c r="C239" s="16" t="s">
         <v>680</v>
       </c>
-      <c r="D239" s="12" t="s">
+      <c r="D239" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="E239" s="15">
-        <v>2</v>
-      </c>
-      <c r="F239" s="15">
-        <v>2</v>
-      </c>
-      <c r="G239" s="15"/>
+      <c r="E239" s="14">
+        <v>2</v>
+      </c>
+      <c r="F239" s="14">
+        <v>2</v>
+      </c>
+      <c r="G239" s="14"/>
       <c r="H239" t="e">
         <v>#N/A</v>
       </c>
@@ -9753,37 +10332,37 @@
       <c r="C240" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="D240" s="3" t="s">
+      <c r="D240" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="E240" s="15">
-        <v>2</v>
-      </c>
-      <c r="F240" s="15">
-        <v>1</v>
-      </c>
-      <c r="G240" s="15"/>
+      <c r="E240" s="14">
+        <v>2</v>
+      </c>
+      <c r="F240" s="14">
+        <v>1</v>
+      </c>
+      <c r="G240" s="14"/>
       <c r="H240" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="241" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B241" s="15" t="s">
+      <c r="B241" s="14" t="s">
         <v>682</v>
       </c>
-      <c r="C241" s="15" t="s">
+      <c r="C241" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="D241" s="3" t="s">
+      <c r="D241" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="E241" s="15">
-        <v>2</v>
-      </c>
-      <c r="F241" s="15">
-        <v>1</v>
-      </c>
-      <c r="G241" s="15"/>
+      <c r="E241" s="14">
+        <v>2</v>
+      </c>
+      <c r="F241" s="14">
+        <v>1</v>
+      </c>
+      <c r="G241" s="14"/>
       <c r="H241" t="e">
         <v>#N/A</v>
       </c>
@@ -9795,16 +10374,16 @@
       <c r="C242" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="D242" s="3" t="s">
+      <c r="D242" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="E242" s="15">
-        <v>2</v>
-      </c>
-      <c r="F242" s="15">
-        <v>2</v>
-      </c>
-      <c r="G242" s="15"/>
+      <c r="E242" s="14">
+        <v>2</v>
+      </c>
+      <c r="F242" s="14">
+        <v>2</v>
+      </c>
+      <c r="G242" s="14"/>
       <c r="H242" t="e">
         <v>#N/A</v>
       </c>
@@ -9816,79 +10395,79 @@
       <c r="C243" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="D243" s="3" t="s">
+      <c r="D243" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="E243" s="15">
-        <v>2</v>
-      </c>
-      <c r="F243" s="15">
-        <v>2</v>
-      </c>
-      <c r="G243" s="15"/>
+      <c r="E243" s="14">
+        <v>2</v>
+      </c>
+      <c r="F243" s="14">
+        <v>2</v>
+      </c>
+      <c r="G243" s="14"/>
       <c r="H243" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="244" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B244" s="17" t="s">
+      <c r="B244" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="C244" s="17" t="s">
+      <c r="C244" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="D244" s="3" t="s">
+      <c r="D244" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="E244" s="15">
-        <v>2</v>
-      </c>
-      <c r="F244" s="15">
-        <v>2</v>
-      </c>
-      <c r="G244" s="15"/>
+      <c r="E244" s="14">
+        <v>2</v>
+      </c>
+      <c r="F244" s="14">
+        <v>2</v>
+      </c>
+      <c r="G244" s="14"/>
       <c r="H244" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="245" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B245" s="17" t="s">
+      <c r="B245" s="16" t="s">
         <v>685</v>
       </c>
-      <c r="C245" s="17" t="s">
+      <c r="C245" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="D245" s="3" t="s">
+      <c r="D245" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="E245" s="15">
-        <v>2</v>
-      </c>
-      <c r="F245" s="15">
-        <v>1</v>
-      </c>
-      <c r="G245" s="15"/>
+      <c r="E245" s="14">
+        <v>2</v>
+      </c>
+      <c r="F245" s="14">
+        <v>1</v>
+      </c>
+      <c r="G245" s="14"/>
       <c r="H245" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="246" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B246" s="17" t="s">
+      <c r="B246" s="16" t="s">
         <v>686</v>
       </c>
-      <c r="C246" s="17" t="s">
+      <c r="C246" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="D246" s="3" t="s">
+      <c r="D246" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E246" s="15">
-        <v>2</v>
-      </c>
-      <c r="F246" s="15">
-        <v>1</v>
-      </c>
-      <c r="G246" s="15"/>
+      <c r="E246" s="14">
+        <v>2</v>
+      </c>
+      <c r="F246" s="14">
+        <v>1</v>
+      </c>
+      <c r="G246" s="14"/>
       <c r="H246" t="e">
         <v>#N/A</v>
       </c>
@@ -9900,16 +10479,16 @@
       <c r="C247" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="D247" s="3" t="s">
+      <c r="D247" s="26" t="s">
         <v>439</v>
       </c>
-      <c r="E247" s="15">
-        <v>2</v>
-      </c>
-      <c r="F247" s="15">
-        <v>2</v>
-      </c>
-      <c r="G247" s="15"/>
+      <c r="E247" s="14">
+        <v>2</v>
+      </c>
+      <c r="F247" s="14">
+        <v>2</v>
+      </c>
+      <c r="G247" s="14"/>
       <c r="H247" t="e">
         <v>#N/A</v>
       </c>
@@ -9921,37 +10500,37 @@
       <c r="C248" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="D248" s="3" t="s">
+      <c r="D248" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="E248" s="15">
-        <v>2</v>
-      </c>
-      <c r="F248" s="15">
-        <v>2</v>
-      </c>
-      <c r="G248" s="15"/>
+      <c r="E248" s="14">
+        <v>2</v>
+      </c>
+      <c r="F248" s="14">
+        <v>2</v>
+      </c>
+      <c r="G248" s="14"/>
       <c r="H248" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="249" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B249" s="17" t="s">
+      <c r="B249" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="C249" s="17" t="s">
+      <c r="C249" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="D249" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="E249" s="15">
-        <v>2</v>
-      </c>
-      <c r="F249" s="15">
-        <v>2</v>
-      </c>
-      <c r="G249" s="15"/>
+      <c r="D249" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="E249" s="14">
+        <v>2</v>
+      </c>
+      <c r="F249" s="14">
+        <v>2</v>
+      </c>
+      <c r="G249" s="14"/>
       <c r="H249" t="e">
         <v>#N/A</v>
       </c>
@@ -9963,16 +10542,16 @@
       <c r="C250" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="D250" s="3" t="s">
+      <c r="D250" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="E250" s="15">
-        <v>2</v>
-      </c>
-      <c r="F250" s="15">
-        <v>2</v>
-      </c>
-      <c r="G250" s="15"/>
+      <c r="E250" s="14">
+        <v>2</v>
+      </c>
+      <c r="F250" s="14">
+        <v>2</v>
+      </c>
+      <c r="G250" s="14"/>
       <c r="H250" t="e">
         <v>#N/A</v>
       </c>
@@ -9984,37 +10563,37 @@
       <c r="C251" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="D251" s="3" t="s">
+      <c r="D251" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="E251" s="15">
-        <v>2</v>
-      </c>
-      <c r="F251" s="15">
-        <v>2</v>
-      </c>
-      <c r="G251" s="15"/>
+      <c r="E251" s="14">
+        <v>2</v>
+      </c>
+      <c r="F251" s="14">
+        <v>2</v>
+      </c>
+      <c r="G251" s="14"/>
       <c r="H251" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="252" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B252" s="17" t="s">
+      <c r="B252" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="C252" s="17" t="s">
+      <c r="C252" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="D252" s="3" t="s">
+      <c r="D252" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="E252" s="15">
-        <v>2</v>
-      </c>
-      <c r="F252" s="15">
-        <v>2</v>
-      </c>
-      <c r="G252" s="15"/>
+      <c r="E252" s="14">
+        <v>2</v>
+      </c>
+      <c r="F252" s="14">
+        <v>2</v>
+      </c>
+      <c r="G252" s="14"/>
       <c r="H252" t="e">
         <v>#N/A</v>
       </c>

--- a/小精灵配置文件/小精灵需求/角色信息.xlsx
+++ b/小精灵配置文件/小精灵需求/角色信息.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="745">
   <si>
     <t>序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2583,6 +2583,34 @@
   </si>
   <si>
     <t>鲤鱼王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈雀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大嘴雀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰猴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小火猴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛火猴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3136,7 +3164,7 @@
   <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3731,6 +3759,9 @@
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
+      <c r="G22" s="19" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
@@ -3752,6 +3783,15 @@
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
+      <c r="G23" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
@@ -3773,6 +3813,9 @@
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
+      <c r="G24" s="19" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
@@ -3794,6 +3837,15 @@
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
+      <c r="G25" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
@@ -3814,6 +3866,15 @@
       <c r="F26" s="23" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -4982,8 +5043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M252"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="D134" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5139,7 +5200,7 @@
       <c r="C7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="26" t="s">
         <v>77</v>
       </c>
       <c r="E7" s="4">
@@ -5284,7 +5345,7 @@
       <c r="C12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="26" t="s">
         <v>87</v>
       </c>
       <c r="E12" s="1">
@@ -6181,7 +6242,7 @@
       <c r="C51" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="26" t="s">
         <v>158</v>
       </c>
       <c r="E51" s="4">
@@ -7101,7 +7162,7 @@
       <c r="C91" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="26" t="s">
         <v>236</v>
       </c>
       <c r="E91" s="4">
@@ -9009,7 +9070,7 @@
       <c r="C177" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D177" s="9" t="s">
+      <c r="D177" s="26" t="s">
         <v>378</v>
       </c>
       <c r="E177" s="14">
@@ -9030,7 +9091,7 @@
       <c r="C178" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D178" s="9" t="s">
+      <c r="D178" s="26" t="s">
         <v>380</v>
       </c>
       <c r="E178" s="14">
@@ -9135,7 +9196,7 @@
       <c r="C183" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D183" s="9" t="s">
+      <c r="D183" s="26" t="s">
         <v>385</v>
       </c>
       <c r="E183" s="14">
@@ -9240,7 +9301,7 @@
       <c r="C188" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="D188" s="9" t="s">
+      <c r="D188" s="26" t="s">
         <v>158</v>
       </c>
       <c r="E188" s="14">
@@ -9261,7 +9322,7 @@
       <c r="C189" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D189" s="9" t="s">
+      <c r="D189" s="26" t="s">
         <v>158</v>
       </c>
       <c r="E189" s="14">
@@ -9933,7 +9994,7 @@
       <c r="C221" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="D221" s="9" t="s">
+      <c r="D221" s="26" t="s">
         <v>236</v>
       </c>
       <c r="E221" s="14">
@@ -9954,7 +10015,7 @@
       <c r="C222" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D222" s="9" t="s">
+      <c r="D222" s="26" t="s">
         <v>236</v>
       </c>
       <c r="E222" s="14">

--- a/小精灵配置文件/小精灵需求/角色信息.xlsx
+++ b/小精灵配置文件/小精灵需求/角色信息.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="809">
   <si>
     <t>序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2611,6 +2611,262 @@
   </si>
   <si>
     <t>猛火猴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施琅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李自成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵飞燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戚继光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上官婉儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘伯温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文天祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐毅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈圆圆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海瑞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪秀全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦桧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荀彧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太史慈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张郃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙尚香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁肃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华佗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王允</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙瓒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文丑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王世充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萧美娘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣华夫人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雄阔海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏文通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤俊达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺若弼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩擒虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张丽华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房玄龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜如晦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翟让</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周勃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭越</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯婴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张耳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田横</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薄姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叔孙通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项伯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏豹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田儋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈馀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郦食其</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐世勣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2681,7 +2937,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2760,6 +3016,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2788,7 +3050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2857,6 +3119,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3161,10 +3425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P81"/>
+  <dimension ref="A1:P145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3233,7 +3497,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="22" t="str">
-        <f t="shared" ref="F3:F66" si="0">VLOOKUP($E3,$O$3:$P$6,2,0)</f>
+        <f t="shared" ref="F3:F114" si="0">VLOOKUP($E3,$O$3:$P$6,2,0)</f>
         <v>水</v>
       </c>
       <c r="G3" s="19" t="s">
@@ -3740,1297 +4004,2705 @@
       <c r="N21" s="29"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="30">
         <v>21</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="C22" s="30">
+        <v>2</v>
+      </c>
+      <c r="D22" s="30">
+        <v>8</v>
+      </c>
+      <c r="E22" s="30">
+        <v>1</v>
+      </c>
+      <c r="F22" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="N22" s="29"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="30">
+        <v>22</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="C23" s="30">
+        <v>2</v>
+      </c>
+      <c r="D23" s="30">
+        <v>8</v>
+      </c>
+      <c r="E23" s="30">
+        <v>1</v>
+      </c>
+      <c r="F23" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="N23" s="29"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="30">
+        <v>23</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>794</v>
+      </c>
+      <c r="C24" s="30">
+        <v>2</v>
+      </c>
+      <c r="D24" s="30">
+        <v>8</v>
+      </c>
+      <c r="E24" s="30">
+        <v>1</v>
+      </c>
+      <c r="F24" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="N24" s="29"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="30">
+        <v>24</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="C25" s="30">
+        <v>2</v>
+      </c>
+      <c r="D25" s="30">
+        <v>8</v>
+      </c>
+      <c r="E25" s="30">
+        <v>1</v>
+      </c>
+      <c r="F25" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="N25" s="29"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="30">
+        <v>25</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="C26" s="30">
+        <v>2</v>
+      </c>
+      <c r="D26" s="30">
+        <v>8</v>
+      </c>
+      <c r="E26" s="30">
+        <v>1</v>
+      </c>
+      <c r="F26" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="N26" s="29"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="30">
+        <v>26</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="C27" s="30">
+        <v>2</v>
+      </c>
+      <c r="D27" s="30">
+        <v>8</v>
+      </c>
+      <c r="E27" s="30">
+        <v>1</v>
+      </c>
+      <c r="F27" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="N27" s="29"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="30">
+        <v>27</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="C28" s="30">
+        <v>2</v>
+      </c>
+      <c r="D28" s="30">
+        <v>8</v>
+      </c>
+      <c r="E28" s="30">
+        <v>1</v>
+      </c>
+      <c r="F28" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="N28" s="29"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="30">
+        <v>28</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="C29" s="30">
+        <v>2</v>
+      </c>
+      <c r="D29" s="30">
+        <v>8</v>
+      </c>
+      <c r="E29" s="30">
+        <v>1</v>
+      </c>
+      <c r="F29" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="N29" s="29"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="31">
+        <v>29</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="C30" s="31">
+        <v>1</v>
+      </c>
+      <c r="D30" s="31">
+        <v>5</v>
+      </c>
+      <c r="E30" s="31">
+        <v>1</v>
+      </c>
+      <c r="F30" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="N30" s="29"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>799</v>
+      </c>
+      <c r="C31" s="31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="31">
+        <v>5</v>
+      </c>
+      <c r="E31" s="31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="N31" s="29"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="31">
+        <v>31</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>800</v>
+      </c>
+      <c r="C32" s="31">
+        <v>1</v>
+      </c>
+      <c r="D32" s="31">
+        <v>5</v>
+      </c>
+      <c r="E32" s="31">
+        <v>1</v>
+      </c>
+      <c r="F32" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="N32" s="29"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="31">
+        <v>32</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="C33" s="31">
+        <v>1</v>
+      </c>
+      <c r="D33" s="31">
+        <v>5</v>
+      </c>
+      <c r="E33" s="31">
+        <v>1</v>
+      </c>
+      <c r="F33" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="N33" s="29"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="31">
+        <v>33</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>802</v>
+      </c>
+      <c r="C34" s="31">
+        <v>1</v>
+      </c>
+      <c r="D34" s="31">
+        <v>5</v>
+      </c>
+      <c r="E34" s="31">
+        <v>1</v>
+      </c>
+      <c r="F34" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="N34" s="29"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="31">
+        <v>34</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>803</v>
+      </c>
+      <c r="C35" s="31">
+        <v>1</v>
+      </c>
+      <c r="D35" s="31">
+        <v>5</v>
+      </c>
+      <c r="E35" s="31">
+        <v>1</v>
+      </c>
+      <c r="F35" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="N35" s="29"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="31">
+        <v>35</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="C36" s="31">
+        <v>1</v>
+      </c>
+      <c r="D36" s="31">
+        <v>5</v>
+      </c>
+      <c r="E36" s="31">
+        <v>1</v>
+      </c>
+      <c r="F36" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="N36" s="29"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="31">
+        <v>36</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>804</v>
+      </c>
+      <c r="C37" s="31">
+        <v>1</v>
+      </c>
+      <c r="D37" s="31">
+        <v>5</v>
+      </c>
+      <c r="E37" s="31">
+        <v>1</v>
+      </c>
+      <c r="F37" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+      <c r="N37" s="29"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="22">
+        <v>37</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C38" s="22">
         <v>5</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D38" s="22">
         <v>18</v>
       </c>
-      <c r="E22" s="22">
-        <v>2</v>
-      </c>
-      <c r="F22" s="22" t="str">
+      <c r="E38" s="22">
+        <v>2</v>
+      </c>
+      <c r="F38" s="22" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G38" s="19" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
-        <v>22</v>
-      </c>
-      <c r="B23" s="22" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="22">
+        <v>38</v>
+      </c>
+      <c r="B39" s="22" t="s">
         <v>690</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C39" s="22">
         <v>5</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D39" s="22">
         <v>18</v>
       </c>
-      <c r="E23" s="22">
-        <v>2</v>
-      </c>
-      <c r="F23" s="22" t="str">
+      <c r="E39" s="22">
+        <v>2</v>
+      </c>
+      <c r="F39" s="22" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G39" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H39" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I39" s="19" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
-        <v>23</v>
-      </c>
-      <c r="B24" s="23" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="23">
+        <v>39</v>
+      </c>
+      <c r="B40" s="23" t="s">
         <v>691</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C40" s="23">
         <v>4</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D40" s="23">
         <v>15</v>
       </c>
-      <c r="E24" s="23">
-        <v>2</v>
-      </c>
-      <c r="F24" s="23" t="str">
+      <c r="E40" s="23">
+        <v>2</v>
+      </c>
+      <c r="F40" s="23" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G40" s="19" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="23">
-        <v>24</v>
-      </c>
-      <c r="B25" s="23" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="23">
+        <v>40</v>
+      </c>
+      <c r="B41" s="23" t="s">
         <v>692</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C41" s="23">
         <v>4</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D41" s="23">
         <v>15</v>
       </c>
-      <c r="E25" s="23">
-        <v>2</v>
-      </c>
-      <c r="F25" s="23" t="str">
+      <c r="E41" s="23">
+        <v>2</v>
+      </c>
+      <c r="F41" s="23" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G41" s="19" t="s">
         <v>739</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H41" s="19" t="s">
         <v>740</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I41" s="19" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="23">
-        <v>25</v>
-      </c>
-      <c r="B26" s="23" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="23">
+        <v>41</v>
+      </c>
+      <c r="B42" s="23" t="s">
         <v>693</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C42" s="23">
         <v>4</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D42" s="23">
         <v>15</v>
       </c>
-      <c r="E26" s="23">
-        <v>2</v>
-      </c>
-      <c r="F26" s="23" t="str">
+      <c r="E42" s="23">
+        <v>2</v>
+      </c>
+      <c r="F42" s="23" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G42" s="19" t="s">
         <v>743</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H42" s="19" t="s">
         <v>744</v>
       </c>
-      <c r="I26" s="19" t="s">
+      <c r="I42" s="19" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
-        <v>26</v>
-      </c>
-      <c r="B27" s="23" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="23">
+        <v>42</v>
+      </c>
+      <c r="B43" s="23" t="s">
         <v>694</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C43" s="23">
         <v>4</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D43" s="23">
         <v>15</v>
       </c>
-      <c r="E27" s="23">
-        <v>2</v>
-      </c>
-      <c r="F27" s="23" t="str">
+      <c r="E43" s="23">
+        <v>2</v>
+      </c>
+      <c r="F43" s="23" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="23">
-        <v>27</v>
-      </c>
-      <c r="B28" s="23" t="s">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="23">
+        <v>43</v>
+      </c>
+      <c r="B44" s="23" t="s">
         <v>695</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C44" s="23">
         <v>4</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D44" s="23">
         <v>15</v>
       </c>
-      <c r="E28" s="23">
-        <v>2</v>
-      </c>
-      <c r="F28" s="23" t="str">
+      <c r="E44" s="23">
+        <v>2</v>
+      </c>
+      <c r="F44" s="23" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
-        <v>28</v>
-      </c>
-      <c r="B29" s="23" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="23">
+        <v>44</v>
+      </c>
+      <c r="B45" s="23" t="s">
         <v>696</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C45" s="23">
         <v>4</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D45" s="23">
         <v>15</v>
       </c>
-      <c r="E29" s="23">
-        <v>2</v>
-      </c>
-      <c r="F29" s="23" t="str">
+      <c r="E45" s="23">
+        <v>2</v>
+      </c>
+      <c r="F45" s="23" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
-        <v>29</v>
-      </c>
-      <c r="B30" s="23" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="23">
+        <v>45</v>
+      </c>
+      <c r="B46" s="23" t="s">
         <v>697</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C46" s="23">
         <v>4</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D46" s="23">
         <v>15</v>
       </c>
-      <c r="E30" s="23">
-        <v>2</v>
-      </c>
-      <c r="F30" s="23" t="str">
+      <c r="E46" s="23">
+        <v>2</v>
+      </c>
+      <c r="F46" s="23" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
-        <v>30</v>
-      </c>
-      <c r="B31" s="23" t="s">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="23">
+        <v>46</v>
+      </c>
+      <c r="B47" s="23" t="s">
         <v>698</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C47" s="23">
         <v>4</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D47" s="23">
         <v>15</v>
       </c>
-      <c r="E31" s="23">
-        <v>2</v>
-      </c>
-      <c r="F31" s="23" t="str">
+      <c r="E47" s="23">
+        <v>2</v>
+      </c>
+      <c r="F47" s="23" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="24">
-        <v>31</v>
-      </c>
-      <c r="B32" s="24" t="s">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="24">
+        <v>47</v>
+      </c>
+      <c r="B48" s="24" t="s">
         <v>699</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C48" s="24">
         <v>4</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D48" s="24">
         <v>13</v>
       </c>
-      <c r="E32" s="24">
-        <v>2</v>
-      </c>
-      <c r="F32" s="24" t="str">
+      <c r="E48" s="24">
+        <v>2</v>
+      </c>
+      <c r="F48" s="24" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="24">
-        <v>32</v>
-      </c>
-      <c r="B33" s="24" t="s">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="24">
+        <v>48</v>
+      </c>
+      <c r="B49" s="24" t="s">
         <v>700</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C49" s="24">
         <v>4</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D49" s="24">
         <v>13</v>
       </c>
-      <c r="E33" s="24">
-        <v>2</v>
-      </c>
-      <c r="F33" s="24" t="str">
+      <c r="E49" s="24">
+        <v>2</v>
+      </c>
+      <c r="F49" s="24" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="24">
-        <v>33</v>
-      </c>
-      <c r="B34" s="24" t="s">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="24">
+        <v>49</v>
+      </c>
+      <c r="B50" s="24" t="s">
         <v>701</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C50" s="24">
         <v>4</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D50" s="24">
         <v>13</v>
       </c>
-      <c r="E34" s="24">
-        <v>2</v>
-      </c>
-      <c r="F34" s="24" t="str">
+      <c r="E50" s="24">
+        <v>2</v>
+      </c>
+      <c r="F50" s="24" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="24">
-        <v>34</v>
-      </c>
-      <c r="B35" s="24" t="s">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="24">
+        <v>50</v>
+      </c>
+      <c r="B51" s="24" t="s">
         <v>702</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C51" s="24">
         <v>4</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D51" s="24">
         <v>13</v>
       </c>
-      <c r="E35" s="24">
-        <v>2</v>
-      </c>
-      <c r="F35" s="24" t="str">
+      <c r="E51" s="24">
+        <v>2</v>
+      </c>
+      <c r="F51" s="24" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="25">
-        <v>35</v>
-      </c>
-      <c r="B36" s="25" t="s">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="25">
+        <v>51</v>
+      </c>
+      <c r="B52" s="25" t="s">
         <v>703</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C52" s="25">
         <v>3</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D52" s="25">
         <v>10</v>
       </c>
-      <c r="E36" s="25">
-        <v>2</v>
-      </c>
-      <c r="F36" s="25" t="str">
+      <c r="E52" s="25">
+        <v>2</v>
+      </c>
+      <c r="F52" s="25" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="25">
-        <v>36</v>
-      </c>
-      <c r="B37" s="25" t="s">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="25">
+        <v>52</v>
+      </c>
+      <c r="B53" s="25" t="s">
         <v>704</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C53" s="25">
         <v>3</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D53" s="25">
         <v>10</v>
       </c>
-      <c r="E37" s="25">
-        <v>2</v>
-      </c>
-      <c r="F37" s="25" t="str">
+      <c r="E53" s="25">
+        <v>2</v>
+      </c>
+      <c r="F53" s="25" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="25">
-        <v>37</v>
-      </c>
-      <c r="B38" s="25" t="s">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="25">
+        <v>53</v>
+      </c>
+      <c r="B54" s="25" t="s">
         <v>705</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C54" s="25">
         <v>3</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D54" s="25">
         <v>10</v>
       </c>
-      <c r="E38" s="25">
-        <v>2</v>
-      </c>
-      <c r="F38" s="25" t="str">
+      <c r="E54" s="25">
+        <v>2</v>
+      </c>
+      <c r="F54" s="25" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="25">
-        <v>38</v>
-      </c>
-      <c r="B39" s="25" t="s">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="25">
+        <v>54</v>
+      </c>
+      <c r="B55" s="25" t="s">
         <v>706</v>
       </c>
-      <c r="C39" s="25">
+      <c r="C55" s="25">
         <v>3</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D55" s="25">
         <v>10</v>
       </c>
-      <c r="E39" s="25">
-        <v>2</v>
-      </c>
-      <c r="F39" s="25" t="str">
+      <c r="E55" s="25">
+        <v>2</v>
+      </c>
+      <c r="F55" s="25" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="25">
-        <v>39</v>
-      </c>
-      <c r="B40" s="25" t="s">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="25">
+        <v>55</v>
+      </c>
+      <c r="B56" s="25" t="s">
         <v>707</v>
       </c>
-      <c r="C40" s="25">
+      <c r="C56" s="25">
         <v>3</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D56" s="25">
         <v>10</v>
       </c>
-      <c r="E40" s="25">
-        <v>2</v>
-      </c>
-      <c r="F40" s="25" t="str">
+      <c r="E56" s="25">
+        <v>2</v>
+      </c>
+      <c r="F56" s="25" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="25">
-        <v>40</v>
-      </c>
-      <c r="B41" s="25" t="s">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="25">
+        <v>56</v>
+      </c>
+      <c r="B57" s="25" t="s">
         <v>708</v>
       </c>
-      <c r="C41" s="25">
+      <c r="C57" s="25">
         <v>3</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D57" s="25">
         <v>10</v>
       </c>
-      <c r="E41" s="25">
-        <v>2</v>
-      </c>
-      <c r="F41" s="25" t="str">
+      <c r="E57" s="25">
+        <v>2</v>
+      </c>
+      <c r="F57" s="25" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="22">
-        <v>41</v>
-      </c>
-      <c r="B42" s="22" t="s">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="30">
+        <v>57</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="C58" s="30">
+        <v>2</v>
+      </c>
+      <c r="D58" s="30">
+        <v>8</v>
+      </c>
+      <c r="E58" s="30">
+        <v>2</v>
+      </c>
+      <c r="F58" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="N58" s="29"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="30">
+        <v>58</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>762</v>
+      </c>
+      <c r="C59" s="30">
+        <v>2</v>
+      </c>
+      <c r="D59" s="30">
+        <v>8</v>
+      </c>
+      <c r="E59" s="30">
+        <v>2</v>
+      </c>
+      <c r="F59" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="N59" s="29"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="30">
+        <v>59</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>763</v>
+      </c>
+      <c r="C60" s="30">
+        <v>2</v>
+      </c>
+      <c r="D60" s="30">
+        <v>8</v>
+      </c>
+      <c r="E60" s="30">
+        <v>2</v>
+      </c>
+      <c r="F60" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="N60" s="29"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="30">
+        <v>60</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>764</v>
+      </c>
+      <c r="C61" s="30">
+        <v>2</v>
+      </c>
+      <c r="D61" s="30">
+        <v>8</v>
+      </c>
+      <c r="E61" s="30">
+        <v>2</v>
+      </c>
+      <c r="F61" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="N61" s="29"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="30">
+        <v>61</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>765</v>
+      </c>
+      <c r="C62" s="30">
+        <v>2</v>
+      </c>
+      <c r="D62" s="30">
+        <v>8</v>
+      </c>
+      <c r="E62" s="30">
+        <v>2</v>
+      </c>
+      <c r="F62" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="N62" s="29"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="30">
+        <v>62</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="C63" s="30">
+        <v>2</v>
+      </c>
+      <c r="D63" s="30">
+        <v>8</v>
+      </c>
+      <c r="E63" s="30">
+        <v>2</v>
+      </c>
+      <c r="F63" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="N63" s="29"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="30">
+        <v>63</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="C64" s="30">
+        <v>2</v>
+      </c>
+      <c r="D64" s="30">
+        <v>8</v>
+      </c>
+      <c r="E64" s="30">
+        <v>2</v>
+      </c>
+      <c r="F64" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="N64" s="29"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="30">
+        <v>64</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>768</v>
+      </c>
+      <c r="C65" s="30">
+        <v>2</v>
+      </c>
+      <c r="D65" s="30">
+        <v>8</v>
+      </c>
+      <c r="E65" s="30">
+        <v>2</v>
+      </c>
+      <c r="F65" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="N65" s="29"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="31">
+        <v>65</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>769</v>
+      </c>
+      <c r="C66" s="31">
+        <v>1</v>
+      </c>
+      <c r="D66" s="31">
+        <v>5</v>
+      </c>
+      <c r="E66" s="31">
+        <v>2</v>
+      </c>
+      <c r="F66" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="N66" s="29"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="31">
+        <v>66</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>770</v>
+      </c>
+      <c r="C67" s="31">
+        <v>1</v>
+      </c>
+      <c r="D67" s="31">
+        <v>5</v>
+      </c>
+      <c r="E67" s="31">
+        <v>2</v>
+      </c>
+      <c r="F67" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="N67" s="29"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="31">
+        <v>67</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>771</v>
+      </c>
+      <c r="C68" s="31">
+        <v>1</v>
+      </c>
+      <c r="D68" s="31">
+        <v>5</v>
+      </c>
+      <c r="E68" s="31">
+        <v>2</v>
+      </c>
+      <c r="F68" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="N68" s="29"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="31">
+        <v>68</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>772</v>
+      </c>
+      <c r="C69" s="31">
+        <v>1</v>
+      </c>
+      <c r="D69" s="31">
+        <v>5</v>
+      </c>
+      <c r="E69" s="31">
+        <v>2</v>
+      </c>
+      <c r="F69" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="N69" s="29"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="31">
+        <v>69</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="C70" s="31">
+        <v>1</v>
+      </c>
+      <c r="D70" s="31">
+        <v>5</v>
+      </c>
+      <c r="E70" s="31">
+        <v>2</v>
+      </c>
+      <c r="F70" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="N70" s="29"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="31">
+        <v>70</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>774</v>
+      </c>
+      <c r="C71" s="31">
+        <v>1</v>
+      </c>
+      <c r="D71" s="31">
+        <v>5</v>
+      </c>
+      <c r="E71" s="31">
+        <v>2</v>
+      </c>
+      <c r="F71" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="N71" s="29"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="31">
+        <v>71</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>775</v>
+      </c>
+      <c r="C72" s="31">
+        <v>1</v>
+      </c>
+      <c r="D72" s="31">
+        <v>5</v>
+      </c>
+      <c r="E72" s="31">
+        <v>2</v>
+      </c>
+      <c r="F72" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="N72" s="29"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" s="31">
+        <v>72</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>776</v>
+      </c>
+      <c r="C73" s="31">
+        <v>1</v>
+      </c>
+      <c r="D73" s="31">
+        <v>5</v>
+      </c>
+      <c r="E73" s="31">
+        <v>2</v>
+      </c>
+      <c r="F73" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+      <c r="N73" s="29"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="22">
+        <v>73</v>
+      </c>
+      <c r="B74" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="22">
+      <c r="C74" s="22">
         <v>5</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D74" s="22">
         <v>18</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E74" s="22">
         <v>3</v>
       </c>
-      <c r="F42" s="22" t="str">
+      <c r="F74" s="22" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
-        <v>42</v>
-      </c>
-      <c r="B43" s="22" t="s">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" s="22">
+        <v>74</v>
+      </c>
+      <c r="B75" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="22">
+      <c r="C75" s="22">
         <v>5</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D75" s="22">
         <v>18</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E75" s="22">
         <v>3</v>
       </c>
-      <c r="F43" s="22" t="str">
+      <c r="F75" s="22" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="23">
-        <v>43</v>
-      </c>
-      <c r="B44" s="23" t="s">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" s="23">
+        <v>75</v>
+      </c>
+      <c r="B76" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C76" s="23">
         <v>4</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D76" s="23">
         <v>15</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E76" s="23">
         <v>3</v>
       </c>
-      <c r="F44" s="23" t="str">
+      <c r="F76" s="23" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="23">
-        <v>44</v>
-      </c>
-      <c r="B45" s="23" t="s">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="23">
+        <v>76</v>
+      </c>
+      <c r="B77" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C77" s="23">
         <v>4</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D77" s="23">
         <v>15</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E77" s="23">
         <v>3</v>
       </c>
-      <c r="F45" s="23" t="str">
+      <c r="F77" s="23" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="23">
-        <v>45</v>
-      </c>
-      <c r="B46" s="23" t="s">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" s="23">
+        <v>77</v>
+      </c>
+      <c r="B78" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C78" s="23">
         <v>4</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D78" s="23">
         <v>15</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E78" s="23">
         <v>3</v>
       </c>
-      <c r="F46" s="23" t="str">
+      <c r="F78" s="23" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="23">
-        <v>46</v>
-      </c>
-      <c r="B47" s="23" t="s">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" s="23">
+        <v>78</v>
+      </c>
+      <c r="B79" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C79" s="23">
         <v>4</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D79" s="23">
         <v>15</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E79" s="23">
         <v>3</v>
       </c>
-      <c r="F47" s="23" t="str">
+      <c r="F79" s="23" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="23">
-        <v>47</v>
-      </c>
-      <c r="B48" s="23" t="s">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" s="23">
+        <v>79</v>
+      </c>
+      <c r="B80" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C80" s="23">
         <v>4</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D80" s="23">
         <v>15</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E80" s="23">
         <v>3</v>
       </c>
-      <c r="F48" s="23" t="str">
+      <c r="F80" s="23" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="23">
-        <v>48</v>
-      </c>
-      <c r="B49" s="23" t="s">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" s="23">
+        <v>80</v>
+      </c>
+      <c r="B81" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C81" s="23">
         <v>4</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D81" s="23">
         <v>15</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E81" s="23">
         <v>3</v>
       </c>
-      <c r="F49" s="23" t="str">
+      <c r="F81" s="23" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="23">
-        <v>49</v>
-      </c>
-      <c r="B50" s="23" t="s">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" s="23">
+        <v>81</v>
+      </c>
+      <c r="B82" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C82" s="23">
         <v>4</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D82" s="23">
         <v>15</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E82" s="23">
         <v>3</v>
       </c>
-      <c r="F50" s="23" t="str">
+      <c r="F82" s="23" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="23">
-        <v>50</v>
-      </c>
-      <c r="B51" s="23" t="s">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" s="23">
+        <v>82</v>
+      </c>
+      <c r="B83" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C83" s="23">
         <v>4</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D83" s="23">
         <v>15</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E83" s="23">
         <v>3</v>
       </c>
-      <c r="F51" s="23" t="str">
+      <c r="F83" s="23" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="24">
-        <v>51</v>
-      </c>
-      <c r="B52" s="24" t="s">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" s="24">
+        <v>83</v>
+      </c>
+      <c r="B84" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C84" s="24">
         <v>4</v>
       </c>
-      <c r="D52" s="24">
+      <c r="D84" s="24">
         <v>13</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E84" s="24">
         <v>3</v>
       </c>
-      <c r="F52" s="24" t="str">
+      <c r="F84" s="24" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="24">
-        <v>52</v>
-      </c>
-      <c r="B53" s="24" t="s">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" s="24">
+        <v>84</v>
+      </c>
+      <c r="B85" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="24">
+      <c r="C85" s="24">
         <v>4</v>
       </c>
-      <c r="D53" s="24">
+      <c r="D85" s="24">
         <v>13</v>
       </c>
-      <c r="E53" s="24">
+      <c r="E85" s="24">
         <v>3</v>
       </c>
-      <c r="F53" s="24" t="str">
+      <c r="F85" s="24" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="24">
-        <v>53</v>
-      </c>
-      <c r="B54" s="24" t="s">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" s="24">
+        <v>85</v>
+      </c>
+      <c r="B86" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C86" s="24">
         <v>4</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D86" s="24">
         <v>13</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E86" s="24">
         <v>3</v>
       </c>
-      <c r="F54" s="24" t="str">
+      <c r="F86" s="24" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="24">
-        <v>54</v>
-      </c>
-      <c r="B55" s="24" t="s">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" s="24">
+        <v>86</v>
+      </c>
+      <c r="B87" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C87" s="24">
         <v>4</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D87" s="24">
         <v>13</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E87" s="24">
         <v>3</v>
       </c>
-      <c r="F55" s="24" t="str">
+      <c r="F87" s="24" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="25">
-        <v>55</v>
-      </c>
-      <c r="B56" s="25" t="s">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" s="25">
+        <v>87</v>
+      </c>
+      <c r="B88" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="25">
+      <c r="C88" s="25">
         <v>3</v>
       </c>
-      <c r="D56" s="25">
+      <c r="D88" s="25">
         <v>10</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E88" s="25">
         <v>3</v>
       </c>
-      <c r="F56" s="25" t="str">
+      <c r="F88" s="25" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="25">
-        <v>56</v>
-      </c>
-      <c r="B57" s="25" t="s">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" s="25">
+        <v>88</v>
+      </c>
+      <c r="B89" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="25">
+      <c r="C89" s="25">
         <v>3</v>
       </c>
-      <c r="D57" s="25">
+      <c r="D89" s="25">
         <v>10</v>
       </c>
-      <c r="E57" s="25">
+      <c r="E89" s="25">
         <v>3</v>
       </c>
-      <c r="F57" s="25" t="str">
+      <c r="F89" s="25" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="25">
-        <v>57</v>
-      </c>
-      <c r="B58" s="25" t="s">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" s="25">
+        <v>89</v>
+      </c>
+      <c r="B90" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="25">
+      <c r="C90" s="25">
         <v>3</v>
       </c>
-      <c r="D58" s="25">
+      <c r="D90" s="25">
         <v>10</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E90" s="25">
         <v>3</v>
       </c>
-      <c r="F58" s="25" t="str">
+      <c r="F90" s="25" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="25">
-        <v>58</v>
-      </c>
-      <c r="B59" s="25" t="s">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" s="25">
+        <v>90</v>
+      </c>
+      <c r="B91" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="25">
+      <c r="C91" s="25">
         <v>3</v>
       </c>
-      <c r="D59" s="25">
+      <c r="D91" s="25">
         <v>10</v>
       </c>
-      <c r="E59" s="25">
+      <c r="E91" s="25">
         <v>3</v>
       </c>
-      <c r="F59" s="25" t="str">
+      <c r="F91" s="25" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="25">
-        <v>59</v>
-      </c>
-      <c r="B60" s="25" t="s">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" s="25">
+        <v>91</v>
+      </c>
+      <c r="B92" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C60" s="25">
+      <c r="C92" s="25">
         <v>3</v>
       </c>
-      <c r="D60" s="25">
+      <c r="D92" s="25">
         <v>10</v>
       </c>
-      <c r="E60" s="25">
+      <c r="E92" s="25">
         <v>3</v>
       </c>
-      <c r="F60" s="25" t="str">
+      <c r="F92" s="25" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="25">
-        <v>60</v>
-      </c>
-      <c r="B61" s="25" t="s">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" s="25">
+        <v>92</v>
+      </c>
+      <c r="B93" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="25">
+      <c r="C93" s="25">
         <v>3</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D93" s="25">
         <v>10</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E93" s="25">
         <v>3</v>
       </c>
-      <c r="F61" s="25" t="str">
+      <c r="F93" s="25" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="22">
-        <v>61</v>
-      </c>
-      <c r="B62" s="22" t="s">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" s="30">
+        <v>93</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="C94" s="30">
+        <v>2</v>
+      </c>
+      <c r="D94" s="30">
+        <v>8</v>
+      </c>
+      <c r="E94" s="30">
+        <v>3</v>
+      </c>
+      <c r="F94" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="N94" s="29"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" s="30">
+        <v>94</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>808</v>
+      </c>
+      <c r="C95" s="30">
+        <v>2</v>
+      </c>
+      <c r="D95" s="30">
+        <v>8</v>
+      </c>
+      <c r="E95" s="30">
+        <v>3</v>
+      </c>
+      <c r="F95" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="N95" s="29"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96" s="30">
+        <v>95</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="C96" s="30">
+        <v>2</v>
+      </c>
+      <c r="D96" s="30">
+        <v>8</v>
+      </c>
+      <c r="E96" s="30">
+        <v>3</v>
+      </c>
+      <c r="F96" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="N96" s="29"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" s="30">
+        <v>96</v>
+      </c>
+      <c r="B97" s="30" t="s">
+        <v>779</v>
+      </c>
+      <c r="C97" s="30">
+        <v>2</v>
+      </c>
+      <c r="D97" s="30">
+        <v>8</v>
+      </c>
+      <c r="E97" s="30">
+        <v>3</v>
+      </c>
+      <c r="F97" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="N97" s="29"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" s="30">
+        <v>97</v>
+      </c>
+      <c r="B98" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="C98" s="30">
+        <v>2</v>
+      </c>
+      <c r="D98" s="30">
+        <v>8</v>
+      </c>
+      <c r="E98" s="30">
+        <v>3</v>
+      </c>
+      <c r="F98" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="N98" s="29"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" s="30">
+        <v>98</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="C99" s="30">
+        <v>2</v>
+      </c>
+      <c r="D99" s="30">
+        <v>8</v>
+      </c>
+      <c r="E99" s="30">
+        <v>3</v>
+      </c>
+      <c r="F99" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="N99" s="29"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" s="30">
+        <v>99</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="C100" s="30">
+        <v>2</v>
+      </c>
+      <c r="D100" s="30">
+        <v>8</v>
+      </c>
+      <c r="E100" s="30">
+        <v>3</v>
+      </c>
+      <c r="F100" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="N100" s="29"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" s="30">
+        <v>100</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="C101" s="30">
+        <v>2</v>
+      </c>
+      <c r="D101" s="30">
+        <v>8</v>
+      </c>
+      <c r="E101" s="30">
+        <v>3</v>
+      </c>
+      <c r="F101" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="N101" s="29"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" s="31">
+        <v>101</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>784</v>
+      </c>
+      <c r="C102" s="31">
+        <v>1</v>
+      </c>
+      <c r="D102" s="31">
+        <v>5</v>
+      </c>
+      <c r="E102" s="31">
+        <v>3</v>
+      </c>
+      <c r="F102" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="N102" s="29"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" s="31">
+        <v>102</v>
+      </c>
+      <c r="B103" s="31" t="s">
+        <v>785</v>
+      </c>
+      <c r="C103" s="31">
+        <v>1</v>
+      </c>
+      <c r="D103" s="31">
+        <v>5</v>
+      </c>
+      <c r="E103" s="31">
+        <v>3</v>
+      </c>
+      <c r="F103" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="N103" s="29"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" s="31">
+        <v>103</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="C104" s="31">
+        <v>1</v>
+      </c>
+      <c r="D104" s="31">
+        <v>5</v>
+      </c>
+      <c r="E104" s="31">
+        <v>3</v>
+      </c>
+      <c r="F104" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="N104" s="29"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105" s="31">
+        <v>104</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="C105" s="31">
+        <v>1</v>
+      </c>
+      <c r="D105" s="31">
+        <v>5</v>
+      </c>
+      <c r="E105" s="31">
+        <v>3</v>
+      </c>
+      <c r="F105" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="N105" s="29"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" s="31">
+        <v>105</v>
+      </c>
+      <c r="B106" s="31" t="s">
+        <v>788</v>
+      </c>
+      <c r="C106" s="31">
+        <v>1</v>
+      </c>
+      <c r="D106" s="31">
+        <v>5</v>
+      </c>
+      <c r="E106" s="31">
+        <v>3</v>
+      </c>
+      <c r="F106" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="N106" s="29"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" s="31">
+        <v>106</v>
+      </c>
+      <c r="B107" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="C107" s="31">
+        <v>1</v>
+      </c>
+      <c r="D107" s="31">
+        <v>5</v>
+      </c>
+      <c r="E107" s="31">
+        <v>3</v>
+      </c>
+      <c r="F107" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="N107" s="29"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108" s="31">
+        <v>107</v>
+      </c>
+      <c r="B108" s="31" t="s">
+        <v>790</v>
+      </c>
+      <c r="C108" s="31">
+        <v>1</v>
+      </c>
+      <c r="D108" s="31">
+        <v>5</v>
+      </c>
+      <c r="E108" s="31">
+        <v>3</v>
+      </c>
+      <c r="F108" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="N108" s="29"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109" s="31">
+        <v>108</v>
+      </c>
+      <c r="B109" s="31" t="s">
+        <v>791</v>
+      </c>
+      <c r="C109" s="31">
+        <v>1</v>
+      </c>
+      <c r="D109" s="31">
+        <v>5</v>
+      </c>
+      <c r="E109" s="31">
+        <v>3</v>
+      </c>
+      <c r="F109" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+      <c r="N109" s="29"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A110" s="22">
+        <v>109</v>
+      </c>
+      <c r="B110" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="22">
+      <c r="C110" s="22">
         <v>5</v>
       </c>
-      <c r="D62" s="22">
+      <c r="D110" s="22">
         <v>18</v>
       </c>
-      <c r="E62" s="22">
+      <c r="E110" s="22">
         <v>4</v>
       </c>
-      <c r="F62" s="22" t="str">
+      <c r="F110" s="22" t="str">
         <f t="shared" si="0"/>
         <v>光</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="22">
-        <v>62</v>
-      </c>
-      <c r="B63" s="22" t="s">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" s="22">
+        <v>110</v>
+      </c>
+      <c r="B111" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C63" s="22">
+      <c r="C111" s="22">
         <v>5</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D111" s="22">
         <v>18</v>
       </c>
-      <c r="E63" s="22">
+      <c r="E111" s="22">
         <v>4</v>
       </c>
-      <c r="F63" s="22" t="str">
+      <c r="F111" s="22" t="str">
         <f t="shared" si="0"/>
         <v>光</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="23">
-        <v>63</v>
-      </c>
-      <c r="B64" s="23" t="s">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" s="23">
+        <v>111</v>
+      </c>
+      <c r="B112" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="23">
+      <c r="C112" s="23">
         <v>4</v>
       </c>
-      <c r="D64" s="23">
+      <c r="D112" s="23">
         <v>15</v>
       </c>
-      <c r="E64" s="23">
+      <c r="E112" s="23">
         <v>4</v>
       </c>
-      <c r="F64" s="23" t="str">
+      <c r="F112" s="23" t="str">
         <f t="shared" si="0"/>
         <v>光</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="23">
-        <v>64</v>
-      </c>
-      <c r="B65" s="23" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="23">
+        <v>112</v>
+      </c>
+      <c r="B113" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="23">
+      <c r="C113" s="23">
         <v>4</v>
       </c>
-      <c r="D65" s="23">
+      <c r="D113" s="23">
         <v>15</v>
       </c>
-      <c r="E65" s="23">
+      <c r="E113" s="23">
         <v>4</v>
       </c>
-      <c r="F65" s="23" t="str">
+      <c r="F113" s="23" t="str">
         <f t="shared" si="0"/>
         <v>光</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="23">
-        <v>65</v>
-      </c>
-      <c r="B66" s="23" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="23">
+        <v>113</v>
+      </c>
+      <c r="B114" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C66" s="23">
+      <c r="C114" s="23">
         <v>4</v>
       </c>
-      <c r="D66" s="23">
+      <c r="D114" s="23">
         <v>15</v>
       </c>
-      <c r="E66" s="23">
+      <c r="E114" s="23">
         <v>4</v>
       </c>
-      <c r="F66" s="23" t="str">
+      <c r="F114" s="23" t="str">
         <f t="shared" si="0"/>
         <v>光</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="23">
-        <v>66</v>
-      </c>
-      <c r="B67" s="23" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="23">
+        <v>114</v>
+      </c>
+      <c r="B115" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="23">
+      <c r="C115" s="23">
         <v>4</v>
       </c>
-      <c r="D67" s="23">
+      <c r="D115" s="23">
         <v>15</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E115" s="23">
         <v>4</v>
       </c>
-      <c r="F67" s="23" t="str">
-        <f t="shared" ref="F67:F81" si="1">VLOOKUP($E67,$O$3:$P$6,2,0)</f>
+      <c r="F115" s="23" t="str">
+        <f t="shared" ref="F115:F145" si="1">VLOOKUP($E115,$O$3:$P$6,2,0)</f>
         <v>光</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="23">
-        <v>67</v>
-      </c>
-      <c r="B68" s="23" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="23">
+        <v>115</v>
+      </c>
+      <c r="B116" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C68" s="23">
+      <c r="C116" s="23">
         <v>4</v>
       </c>
-      <c r="D68" s="23">
+      <c r="D116" s="23">
         <v>15</v>
       </c>
-      <c r="E68" s="23">
+      <c r="E116" s="23">
         <v>4</v>
       </c>
-      <c r="F68" s="23" t="str">
+      <c r="F116" s="23" t="str">
         <f t="shared" si="1"/>
         <v>光</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="23">
-        <v>68</v>
-      </c>
-      <c r="B69" s="23" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="23">
+        <v>116</v>
+      </c>
+      <c r="B117" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="23">
+      <c r="C117" s="23">
         <v>4</v>
       </c>
-      <c r="D69" s="23">
+      <c r="D117" s="23">
         <v>15</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E117" s="23">
         <v>4</v>
       </c>
-      <c r="F69" s="23" t="str">
+      <c r="F117" s="23" t="str">
         <f t="shared" si="1"/>
         <v>光</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="23">
-        <v>69</v>
-      </c>
-      <c r="B70" s="23" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="23">
+        <v>117</v>
+      </c>
+      <c r="B118" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="23">
+      <c r="C118" s="23">
         <v>4</v>
       </c>
-      <c r="D70" s="23">
+      <c r="D118" s="23">
         <v>15</v>
       </c>
-      <c r="E70" s="23">
+      <c r="E118" s="23">
         <v>4</v>
       </c>
-      <c r="F70" s="23" t="str">
+      <c r="F118" s="23" t="str">
         <f t="shared" si="1"/>
         <v>光</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="23">
-        <v>70</v>
-      </c>
-      <c r="B71" s="23" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="23">
+        <v>118</v>
+      </c>
+      <c r="B119" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C71" s="23">
+      <c r="C119" s="23">
         <v>4</v>
       </c>
-      <c r="D71" s="23">
+      <c r="D119" s="23">
         <v>15</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E119" s="23">
         <v>4</v>
       </c>
-      <c r="F71" s="23" t="str">
+      <c r="F119" s="23" t="str">
         <f t="shared" si="1"/>
         <v>光</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="24">
-        <v>71</v>
-      </c>
-      <c r="B72" s="24" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="24">
+        <v>119</v>
+      </c>
+      <c r="B120" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C72" s="24">
+      <c r="C120" s="24">
         <v>4</v>
       </c>
-      <c r="D72" s="24">
+      <c r="D120" s="24">
         <v>13</v>
       </c>
-      <c r="E72" s="24">
+      <c r="E120" s="24">
         <v>4</v>
       </c>
-      <c r="F72" s="24" t="str">
+      <c r="F120" s="24" t="str">
         <f t="shared" si="1"/>
         <v>光</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="24">
-        <v>72</v>
-      </c>
-      <c r="B73" s="24" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="24">
+        <v>120</v>
+      </c>
+      <c r="B121" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="24">
+      <c r="C121" s="24">
         <v>4</v>
       </c>
-      <c r="D73" s="24">
+      <c r="D121" s="24">
         <v>13</v>
       </c>
-      <c r="E73" s="24">
+      <c r="E121" s="24">
         <v>4</v>
       </c>
-      <c r="F73" s="24" t="str">
+      <c r="F121" s="24" t="str">
         <f t="shared" si="1"/>
         <v>光</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="24">
-        <v>73</v>
-      </c>
-      <c r="B74" s="24" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="24">
+        <v>121</v>
+      </c>
+      <c r="B122" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="24">
+      <c r="C122" s="24">
         <v>4</v>
       </c>
-      <c r="D74" s="24">
+      <c r="D122" s="24">
         <v>13</v>
       </c>
-      <c r="E74" s="24">
+      <c r="E122" s="24">
         <v>4</v>
       </c>
-      <c r="F74" s="24" t="str">
+      <c r="F122" s="24" t="str">
         <f t="shared" si="1"/>
         <v>光</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="24">
-        <v>74</v>
-      </c>
-      <c r="B75" s="24" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="24">
+        <v>122</v>
+      </c>
+      <c r="B123" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="24">
+      <c r="C123" s="24">
         <v>4</v>
       </c>
-      <c r="D75" s="24">
+      <c r="D123" s="24">
         <v>13</v>
       </c>
-      <c r="E75" s="24">
+      <c r="E123" s="24">
         <v>4</v>
       </c>
-      <c r="F75" s="24" t="str">
+      <c r="F123" s="24" t="str">
         <f t="shared" si="1"/>
         <v>光</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="25">
-        <v>75</v>
-      </c>
-      <c r="B76" s="25" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="25">
+        <v>123</v>
+      </c>
+      <c r="B124" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="25">
+      <c r="C124" s="25">
         <v>3</v>
       </c>
-      <c r="D76" s="25">
+      <c r="D124" s="25">
         <v>10</v>
       </c>
-      <c r="E76" s="25">
+      <c r="E124" s="25">
         <v>4</v>
       </c>
-      <c r="F76" s="25" t="str">
+      <c r="F124" s="25" t="str">
         <f t="shared" si="1"/>
         <v>光</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="25">
-        <v>76</v>
-      </c>
-      <c r="B77" s="25" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="25">
+        <v>124</v>
+      </c>
+      <c r="B125" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="25">
+      <c r="C125" s="25">
         <v>3</v>
       </c>
-      <c r="D77" s="25">
+      <c r="D125" s="25">
         <v>10</v>
       </c>
-      <c r="E77" s="25">
+      <c r="E125" s="25">
         <v>4</v>
       </c>
-      <c r="F77" s="25" t="str">
+      <c r="F125" s="25" t="str">
         <f t="shared" si="1"/>
         <v>光</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="25">
-        <v>77</v>
-      </c>
-      <c r="B78" s="25" t="s">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="25">
+        <v>125</v>
+      </c>
+      <c r="B126" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="25">
+      <c r="C126" s="25">
         <v>3</v>
       </c>
-      <c r="D78" s="25">
+      <c r="D126" s="25">
         <v>10</v>
       </c>
-      <c r="E78" s="25">
+      <c r="E126" s="25">
         <v>4</v>
       </c>
-      <c r="F78" s="25" t="str">
+      <c r="F126" s="25" t="str">
         <f t="shared" si="1"/>
         <v>光</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="25">
-        <v>78</v>
-      </c>
-      <c r="B79" s="25" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="25">
+        <v>126</v>
+      </c>
+      <c r="B127" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="25">
+      <c r="C127" s="25">
         <v>3</v>
       </c>
-      <c r="D79" s="25">
+      <c r="D127" s="25">
         <v>10</v>
       </c>
-      <c r="E79" s="25">
+      <c r="E127" s="25">
         <v>4</v>
       </c>
-      <c r="F79" s="25" t="str">
+      <c r="F127" s="25" t="str">
         <f t="shared" si="1"/>
         <v>光</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="25">
-        <v>79</v>
-      </c>
-      <c r="B80" s="25" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="25">
+        <v>127</v>
+      </c>
+      <c r="B128" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="25">
+      <c r="C128" s="25">
         <v>3</v>
       </c>
-      <c r="D80" s="25">
+      <c r="D128" s="25">
         <v>10</v>
       </c>
-      <c r="E80" s="25">
+      <c r="E128" s="25">
         <v>4</v>
       </c>
-      <c r="F80" s="25" t="str">
+      <c r="F128" s="25" t="str">
         <f t="shared" si="1"/>
         <v>光</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="25">
-        <v>80</v>
-      </c>
-      <c r="B81" s="25" t="s">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A129" s="25">
+        <v>128</v>
+      </c>
+      <c r="B129" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="25">
+      <c r="C129" s="25">
         <v>3</v>
       </c>
-      <c r="D81" s="25">
+      <c r="D129" s="25">
         <v>10</v>
       </c>
-      <c r="E81" s="25">
+      <c r="E129" s="25">
         <v>4</v>
       </c>
-      <c r="F81" s="25" t="str">
+      <c r="F129" s="25" t="str">
         <f t="shared" si="1"/>
         <v>光</v>
       </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A130" s="30">
+        <v>129</v>
+      </c>
+      <c r="B130" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="C130" s="30">
+        <v>2</v>
+      </c>
+      <c r="D130" s="30">
+        <v>8</v>
+      </c>
+      <c r="E130" s="30">
+        <v>4</v>
+      </c>
+      <c r="F130" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+      <c r="N130" s="29"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A131" s="30">
+        <v>130</v>
+      </c>
+      <c r="B131" s="30" t="s">
+        <v>746</v>
+      </c>
+      <c r="C131" s="30">
+        <v>2</v>
+      </c>
+      <c r="D131" s="30">
+        <v>8</v>
+      </c>
+      <c r="E131" s="30">
+        <v>4</v>
+      </c>
+      <c r="F131" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+      <c r="N131" s="29"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A132" s="30">
+        <v>131</v>
+      </c>
+      <c r="B132" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="C132" s="30">
+        <v>2</v>
+      </c>
+      <c r="D132" s="30">
+        <v>8</v>
+      </c>
+      <c r="E132" s="30">
+        <v>4</v>
+      </c>
+      <c r="F132" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+      <c r="N132" s="29"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A133" s="30">
+        <v>132</v>
+      </c>
+      <c r="B133" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="C133" s="30">
+        <v>2</v>
+      </c>
+      <c r="D133" s="30">
+        <v>8</v>
+      </c>
+      <c r="E133" s="30">
+        <v>4</v>
+      </c>
+      <c r="F133" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+      <c r="N133" s="29"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A134" s="30">
+        <v>133</v>
+      </c>
+      <c r="B134" s="30" t="s">
+        <v>749</v>
+      </c>
+      <c r="C134" s="30">
+        <v>2</v>
+      </c>
+      <c r="D134" s="30">
+        <v>8</v>
+      </c>
+      <c r="E134" s="30">
+        <v>4</v>
+      </c>
+      <c r="F134" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+      <c r="N134" s="29"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A135" s="30">
+        <v>134</v>
+      </c>
+      <c r="B135" s="30" t="s">
+        <v>750</v>
+      </c>
+      <c r="C135" s="30">
+        <v>2</v>
+      </c>
+      <c r="D135" s="30">
+        <v>8</v>
+      </c>
+      <c r="E135" s="30">
+        <v>4</v>
+      </c>
+      <c r="F135" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+      <c r="N135" s="29"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A136" s="30">
+        <v>135</v>
+      </c>
+      <c r="B136" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="C136" s="30">
+        <v>2</v>
+      </c>
+      <c r="D136" s="30">
+        <v>8</v>
+      </c>
+      <c r="E136" s="30">
+        <v>4</v>
+      </c>
+      <c r="F136" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+      <c r="N136" s="29"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A137" s="30">
+        <v>136</v>
+      </c>
+      <c r="B137" s="30" t="s">
+        <v>752</v>
+      </c>
+      <c r="C137" s="30">
+        <v>2</v>
+      </c>
+      <c r="D137" s="30">
+        <v>8</v>
+      </c>
+      <c r="E137" s="30">
+        <v>4</v>
+      </c>
+      <c r="F137" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+      <c r="N137" s="29"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A138" s="31">
+        <v>137</v>
+      </c>
+      <c r="B138" s="31" t="s">
+        <v>753</v>
+      </c>
+      <c r="C138" s="31">
+        <v>1</v>
+      </c>
+      <c r="D138" s="31">
+        <v>5</v>
+      </c>
+      <c r="E138" s="31">
+        <v>4</v>
+      </c>
+      <c r="F138" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+      <c r="N138" s="29"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A139" s="31">
+        <v>138</v>
+      </c>
+      <c r="B139" s="31" t="s">
+        <v>754</v>
+      </c>
+      <c r="C139" s="31">
+        <v>1</v>
+      </c>
+      <c r="D139" s="31">
+        <v>5</v>
+      </c>
+      <c r="E139" s="31">
+        <v>4</v>
+      </c>
+      <c r="F139" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+      <c r="N139" s="29"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A140" s="31">
+        <v>139</v>
+      </c>
+      <c r="B140" s="31" t="s">
+        <v>755</v>
+      </c>
+      <c r="C140" s="31">
+        <v>1</v>
+      </c>
+      <c r="D140" s="31">
+        <v>5</v>
+      </c>
+      <c r="E140" s="31">
+        <v>4</v>
+      </c>
+      <c r="F140" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+      <c r="N140" s="29"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A141" s="31">
+        <v>140</v>
+      </c>
+      <c r="B141" s="31" t="s">
+        <v>756</v>
+      </c>
+      <c r="C141" s="31">
+        <v>1</v>
+      </c>
+      <c r="D141" s="31">
+        <v>5</v>
+      </c>
+      <c r="E141" s="31">
+        <v>4</v>
+      </c>
+      <c r="F141" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+      <c r="N141" s="29"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A142" s="31">
+        <v>141</v>
+      </c>
+      <c r="B142" s="31" t="s">
+        <v>757</v>
+      </c>
+      <c r="C142" s="31">
+        <v>1</v>
+      </c>
+      <c r="D142" s="31">
+        <v>5</v>
+      </c>
+      <c r="E142" s="31">
+        <v>4</v>
+      </c>
+      <c r="F142" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+      <c r="N142" s="29"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A143" s="31">
+        <v>142</v>
+      </c>
+      <c r="B143" s="31" t="s">
+        <v>758</v>
+      </c>
+      <c r="C143" s="31">
+        <v>1</v>
+      </c>
+      <c r="D143" s="31">
+        <v>5</v>
+      </c>
+      <c r="E143" s="31">
+        <v>4</v>
+      </c>
+      <c r="F143" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+      <c r="N143" s="29"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A144" s="31">
+        <v>143</v>
+      </c>
+      <c r="B144" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="C144" s="31">
+        <v>1</v>
+      </c>
+      <c r="D144" s="31">
+        <v>5</v>
+      </c>
+      <c r="E144" s="31">
+        <v>4</v>
+      </c>
+      <c r="F144" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+      <c r="N144" s="29"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A145" s="31">
+        <v>144</v>
+      </c>
+      <c r="B145" s="31" t="s">
+        <v>760</v>
+      </c>
+      <c r="C145" s="31">
+        <v>1</v>
+      </c>
+      <c r="D145" s="31">
+        <v>5</v>
+      </c>
+      <c r="E145" s="31">
+        <v>4</v>
+      </c>
+      <c r="F145" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>光</v>
+      </c>
+      <c r="N145" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
